--- a/E2E/Web/Web_E2E_UserRegistration/Default.xlsx
+++ b/E2E/Web/Web_E2E_UserRegistration/Default.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="383">
   <si>
     <t>jokosusilo25</t>
   </si>
@@ -433,6 +433,9 @@
     <t>state_province_region</t>
   </si>
   <si>
+    <t xml:space="preserve">aguspratama100 My account My orders Sign out </t>
+  </si>
+  <si>
     <t>putrasetiawan17</t>
   </si>
   <si>
@@ -520,6 +523,9 @@
     <t>indahlim58</t>
   </si>
   <si>
+    <t>agus.pratama106@example.com</t>
+  </si>
+  <si>
     <t>rina.hidayat1000@example.com</t>
   </si>
   <si>
@@ -1081,6 +1087,9 @@
     <t>Jogja</t>
   </si>
   <si>
+    <t>UserMenu_text</t>
+  </si>
+  <si>
     <t>rinahidayat1000</t>
   </si>
   <si>
@@ -1094,9 +1103,6 @@
   </si>
   <si>
     <t>dianharahap9</t>
-  </si>
-  <si>
-    <t>agus.pratama107@example.com</t>
   </si>
   <si>
     <t>budi.lim29@example.com</t>
@@ -1337,7 +1343,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1348,9 +1356,7 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1372,14 +1378,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1676,10 +1682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P101"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -1687,22 +1693,22 @@
     <col min="1" max="1" width="9.41796875" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.35546875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.39453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="9.41796875" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="9.078125" style="3" customWidth="1"/>
+    <col min="4" max="17" width="9.41796875" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="9.078125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.95" s="5" customFormat="1">
+    <row r="1" ht="14.95" s="8" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>122</v>
@@ -1711,13 +1717,13 @@
         <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>127</v>
@@ -1726,19 +1732,22 @@
         <v>137</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="P1" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>44</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="2">
@@ -1746,34 +1755,34 @@
         <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>359</v>
+        <v>168</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G2" s="4">
         <v>628134344765</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L2" s="4">
         <v>63877</v>
@@ -1784,11 +1793,14 @@
       <c r="N2" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O2" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P2" s="8">
+      <c r="O2" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P2" s="5">
         <v>32662</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="3">
@@ -1796,34 +1808,34 @@
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G3" s="4">
         <v>628147303132</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L3" s="4">
         <v>31769</v>
@@ -1834,12 +1846,13 @@
       <c r="N3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O3" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P3" s="8">
+      <c r="O3" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P3" s="5">
         <v>33092</v>
       </c>
+      <c r="Q3" s="6"/>
     </row>
     <row r="4">
       <c r="A4" s="4">
@@ -1849,31 +1862,31 @@
         <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G4" s="4">
         <v>628129434850</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L4" s="4">
         <v>39679</v>
@@ -1884,25 +1897,26 @@
       <c r="N4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P4" s="8">
+      <c r="O4" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P4" s="5">
         <v>33990</v>
       </c>
+      <c r="Q4" s="6"/>
     </row>
     <row r="5">
       <c r="A5" s="4">
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>97</v>
@@ -1914,13 +1928,13 @@
         <v>628183932230</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>82</v>
@@ -1934,28 +1948,29 @@
       <c r="N5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O5" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P5" s="8">
+      <c r="O5" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P5" s="5">
         <v>23689</v>
       </c>
+      <c r="Q5" s="6"/>
     </row>
     <row r="6">
       <c r="A6" s="4">
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>36</v>
@@ -1964,16 +1979,16 @@
         <v>628146987673</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L6" s="4">
         <v>64113</v>
@@ -1984,43 +1999,44 @@
       <c r="N6" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O6" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P6" s="8">
+      <c r="O6" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P6" s="5">
         <v>30313</v>
       </c>
+      <c r="Q6" s="6"/>
     </row>
     <row r="7">
       <c r="A7" s="4">
         <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G7" s="4">
         <v>628158682959</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>125</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>19</v>
@@ -2034,37 +2050,38 @@
       <c r="N7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O7" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P7" s="8">
+      <c r="O7" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P7" s="5">
         <v>21671</v>
       </c>
+      <c r="Q7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" s="4">
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G8" s="4">
         <v>628175960451</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>125</v>
@@ -2084,12 +2101,13 @@
       <c r="N8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O8" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P8" s="8">
+      <c r="O8" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P8" s="5">
         <v>35330</v>
       </c>
+      <c r="Q8" s="6"/>
     </row>
     <row r="9">
       <c r="A9" s="4">
@@ -2102,22 +2120,22 @@
         <v>115</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G9" s="4">
         <v>628119582821</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>59</v>
@@ -2134,12 +2152,13 @@
       <c r="N9" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O9" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P9" s="8">
+      <c r="O9" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P9" s="5">
         <v>20693</v>
       </c>
+      <c r="Q9" s="6"/>
     </row>
     <row r="10">
       <c r="A10" s="4">
@@ -2152,7 +2171,7 @@
         <v>89</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>55</v>
@@ -2164,10 +2183,10 @@
         <v>628100298274</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>14</v>
@@ -2184,37 +2203,38 @@
       <c r="N10" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O10" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P10" s="8">
+      <c r="O10" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P10" s="5">
         <v>20937</v>
       </c>
+      <c r="Q10" s="6"/>
     </row>
     <row r="11">
       <c r="A11" s="4">
         <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>123</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G11" s="4">
         <v>628130158689</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>37</v>
@@ -2223,7 +2243,7 @@
         <v>80</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L11" s="4">
         <v>65183</v>
@@ -2234,12 +2254,13 @@
       <c r="N11" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O11" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P11" s="8">
+      <c r="O11" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P11" s="5">
         <v>33429</v>
       </c>
+      <c r="Q11" s="6"/>
     </row>
     <row r="12">
       <c r="A12" s="4">
@@ -2249,10 +2270,10 @@
         <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>56</v>
@@ -2264,16 +2285,16 @@
         <v>628108570103</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L12" s="4">
         <v>75703</v>
@@ -2284,43 +2305,44 @@
       <c r="N12" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O12" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P12" s="8">
+      <c r="O12" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P12" s="5">
         <v>30297</v>
       </c>
+      <c r="Q12" s="6"/>
     </row>
     <row r="13">
       <c r="A13" s="4">
         <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G13" s="4">
         <v>628125724138</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>125</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>19</v>
@@ -2334,12 +2356,13 @@
       <c r="N13" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O13" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P13" s="8">
+      <c r="O13" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P13" s="5">
         <v>26108</v>
       </c>
+      <c r="Q13" s="6"/>
     </row>
     <row r="14">
       <c r="A14" s="4">
@@ -2349,31 +2372,31 @@
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G14" s="4">
         <v>628156171394</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L14" s="4">
         <v>82659</v>
@@ -2384,46 +2407,47 @@
       <c r="N14" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O14" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P14" s="8">
+      <c r="O14" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P14" s="5">
         <v>39591</v>
       </c>
+      <c r="Q14" s="6"/>
     </row>
     <row r="15">
       <c r="A15" s="4">
         <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G15" s="4">
         <v>628144335819</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>126</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L15" s="4">
         <v>34533</v>
@@ -2434,46 +2458,47 @@
       <c r="N15" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O15" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P15" s="8">
+      <c r="O15" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P15" s="5">
         <v>37483</v>
       </c>
+      <c r="Q15" s="6"/>
     </row>
     <row r="16">
       <c r="A16" s="4">
         <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G16" s="4">
         <v>628154822059</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L16" s="4">
         <v>25313</v>
@@ -2484,37 +2509,38 @@
       <c r="N16" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O16" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P16" s="8">
+      <c r="O16" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P16" s="5">
         <v>35006</v>
       </c>
+      <c r="Q16" s="6"/>
     </row>
     <row r="17">
       <c r="A17" s="4">
         <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G17" s="4">
         <v>628158274276</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>37</v>
@@ -2523,7 +2549,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L17" s="4">
         <v>82651</v>
@@ -2534,28 +2560,29 @@
       <c r="N17" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O17" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P17" s="8">
+      <c r="O17" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P17" s="5">
         <v>31866</v>
       </c>
+      <c r="Q17" s="6"/>
     </row>
     <row r="18">
       <c r="A18" s="4">
         <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>124</v>
@@ -2564,13 +2591,13 @@
         <v>628107910627</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>82</v>
@@ -2584,12 +2611,13 @@
       <c r="N18" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O18" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P18" s="8">
+      <c r="O18" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P18" s="5">
         <v>32491</v>
       </c>
+      <c r="Q18" s="6"/>
     </row>
     <row r="19">
       <c r="A19" s="4">
@@ -2599,31 +2627,31 @@
         <v>110</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G19" s="4">
         <v>628143713500</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>126</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L19" s="4">
         <v>45752</v>
@@ -2634,43 +2662,44 @@
       <c r="N19" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O19" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P19" s="8">
+      <c r="O19" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P19" s="5">
         <v>23085</v>
       </c>
+      <c r="Q19" s="6"/>
     </row>
     <row r="20">
       <c r="A20" s="4">
         <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G20" s="4">
         <v>628195478794</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>82</v>
@@ -2684,40 +2713,41 @@
       <c r="N20" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O20" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P20" s="8">
+      <c r="O20" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P20" s="5">
         <v>28526</v>
       </c>
+      <c r="Q20" s="6"/>
     </row>
     <row r="21">
       <c r="A21" s="4">
         <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G21" s="4">
         <v>628147715731</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>60</v>
@@ -2734,43 +2764,44 @@
       <c r="N21" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O21" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P21" s="8">
+      <c r="O21" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P21" s="5">
         <v>26768</v>
       </c>
+      <c r="Q21" s="6"/>
     </row>
     <row r="22">
       <c r="A22" s="4">
         <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G22" s="4">
         <v>628109777295</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>79</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>79</v>
@@ -2784,43 +2815,44 @@
       <c r="N22" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O22" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P22" s="8">
+      <c r="O22" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P22" s="5">
         <v>23176</v>
       </c>
+      <c r="Q22" s="6"/>
     </row>
     <row r="23">
       <c r="A23" s="4">
         <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G23" s="4">
         <v>628150425593</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>79</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>79</v>
@@ -2834,12 +2866,13 @@
       <c r="N23" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O23" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P23" s="8">
+      <c r="O23" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P23" s="5">
         <v>19802</v>
       </c>
+      <c r="Q23" s="6"/>
     </row>
     <row r="24">
       <c r="A24" s="4">
@@ -2849,31 +2882,31 @@
         <v>69</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G24" s="4">
         <v>628164711773</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L24" s="4">
         <v>56744</v>
@@ -2884,25 +2917,26 @@
       <c r="N24" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O24" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P24" s="8">
+      <c r="O24" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P24" s="5">
         <v>30731</v>
       </c>
+      <c r="Q24" s="6"/>
     </row>
     <row r="25">
       <c r="A25" s="4">
         <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>123</v>
@@ -2914,16 +2948,16 @@
         <v>628168934530</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L25" s="4">
         <v>14509</v>
@@ -2934,46 +2968,47 @@
       <c r="N25" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O25" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P25" s="8">
+      <c r="O25" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P25" s="5">
         <v>23897</v>
       </c>
+      <c r="Q25" s="6"/>
     </row>
     <row r="26">
       <c r="A26" s="4">
         <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G26" s="4">
         <v>628191788162</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L26" s="4">
         <v>80524</v>
@@ -2984,28 +3019,29 @@
       <c r="N26" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O26" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P26" s="8">
+      <c r="O26" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P26" s="5">
         <v>25696</v>
       </c>
+      <c r="Q26" s="6"/>
     </row>
     <row r="27">
       <c r="A27" s="4">
         <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>101</v>
@@ -3014,16 +3050,16 @@
         <v>628114734369</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L27" s="4">
         <v>82659</v>
@@ -3034,12 +3070,13 @@
       <c r="N27" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O27" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P27" s="8">
+      <c r="O27" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P27" s="5">
         <v>34796</v>
       </c>
+      <c r="Q27" s="6"/>
     </row>
     <row r="28">
       <c r="A28" s="4">
@@ -3049,10 +3086,10 @@
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>56</v>
@@ -3064,16 +3101,16 @@
         <v>628105740885</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L28" s="4">
         <v>88449</v>
@@ -3084,25 +3121,26 @@
       <c r="N28" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O28" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P28" s="8">
+      <c r="O28" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P28" s="5">
         <v>29009</v>
       </c>
+      <c r="Q28" s="6"/>
     </row>
     <row r="29">
       <c r="A29" s="4">
         <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>98</v>
@@ -3114,16 +3152,16 @@
         <v>628120859173</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>39</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L29" s="4">
         <v>64746</v>
@@ -3134,25 +3172,26 @@
       <c r="N29" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O29" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P29" s="8">
+      <c r="O29" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P29" s="5">
         <v>36847</v>
       </c>
+      <c r="Q29" s="6"/>
     </row>
     <row r="30">
       <c r="A30" s="4">
         <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>123</v>
@@ -3164,16 +3203,16 @@
         <v>628183203131</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>128</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L30" s="4">
         <v>85811</v>
@@ -3184,46 +3223,47 @@
       <c r="N30" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O30" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P30" s="8">
+      <c r="O30" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P30" s="5">
         <v>39795</v>
       </c>
+      <c r="Q30" s="6"/>
     </row>
     <row r="31">
       <c r="A31" s="4">
         <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G31" s="4">
         <v>628157311837</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>126</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L31" s="4">
         <v>74972</v>
@@ -3234,12 +3274,13 @@
       <c r="N31" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O31" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P31" s="8">
+      <c r="O31" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P31" s="5">
         <v>34669</v>
       </c>
+      <c r="Q31" s="6"/>
     </row>
     <row r="32">
       <c r="A32" s="4">
@@ -3249,13 +3290,13 @@
         <v>2</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>11</v>
@@ -3264,13 +3305,13 @@
         <v>628144482182</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>79</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>79</v>
@@ -3284,12 +3325,13 @@
       <c r="N32" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O32" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P32" s="8">
+      <c r="O32" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P32" s="5">
         <v>29053</v>
       </c>
+      <c r="Q32" s="6"/>
     </row>
     <row r="33">
       <c r="A33" s="4">
@@ -3299,31 +3341,31 @@
         <v>86</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G33" s="4">
         <v>628126703286</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>61</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L33" s="4">
         <v>37901</v>
@@ -3334,46 +3376,47 @@
       <c r="N33" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O33" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P33" s="8">
+      <c r="O33" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P33" s="5">
         <v>23277</v>
       </c>
+      <c r="Q33" s="6"/>
     </row>
     <row r="34">
       <c r="A34" s="4">
         <v>16</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>98</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G34" s="4">
         <v>628133123271</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L34" s="4">
         <v>48445</v>
@@ -3384,25 +3427,26 @@
       <c r="N34" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O34" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P34" s="8">
+      <c r="O34" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P34" s="5">
         <v>32096</v>
       </c>
+      <c r="Q34" s="6"/>
     </row>
     <row r="35">
       <c r="A35" s="4">
         <v>23</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>97</v>
@@ -3414,16 +3458,16 @@
         <v>628183298096</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>102</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L35" s="4">
         <v>16134</v>
@@ -3434,46 +3478,47 @@
       <c r="N35" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O35" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P35" s="8">
+      <c r="O35" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P35" s="5">
         <v>23530</v>
       </c>
+      <c r="Q35" s="6"/>
     </row>
     <row r="36">
       <c r="A36" s="4">
         <v>69</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G36" s="4">
         <v>628106671721</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>40</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L36" s="4">
         <v>15135</v>
@@ -3484,28 +3529,29 @@
       <c r="N36" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O36" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P36" s="8">
+      <c r="O36" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P36" s="5">
         <v>38397</v>
       </c>
+      <c r="Q36" s="6"/>
     </row>
     <row r="37">
       <c r="A37" s="4">
         <v>73</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>101</v>
@@ -3514,16 +3560,16 @@
         <v>628189086695</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>41</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L37" s="4">
         <v>61650</v>
@@ -3534,46 +3580,47 @@
       <c r="N37" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O37" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P37" s="8">
+      <c r="O37" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P37" s="5">
         <v>21881</v>
       </c>
+      <c r="Q37" s="6"/>
     </row>
     <row r="38">
       <c r="A38" s="4">
         <v>77</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G38" s="4">
         <v>628139136636</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>42</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L38" s="4">
         <v>40613</v>
@@ -3584,12 +3631,13 @@
       <c r="N38" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O38" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P38" s="8">
+      <c r="O38" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P38" s="5">
         <v>31514</v>
       </c>
+      <c r="Q38" s="6"/>
     </row>
     <row r="39">
       <c r="A39" s="4">
@@ -3599,31 +3647,31 @@
         <v>20</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G39" s="4">
         <v>628191906216</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L39" s="4">
         <v>22494</v>
@@ -3634,28 +3682,29 @@
       <c r="N39" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O39" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P39" s="8">
+      <c r="O39" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P39" s="5">
         <v>18630</v>
       </c>
+      <c r="Q39" s="6"/>
     </row>
     <row r="40">
       <c r="A40" s="4">
         <v>47</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>101</v>
@@ -3664,16 +3713,16 @@
         <v>628143603294</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>129</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L40" s="4">
         <v>26759</v>
@@ -3684,46 +3733,47 @@
       <c r="N40" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O40" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P40" s="8">
+      <c r="O40" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P40" s="5">
         <v>21130</v>
       </c>
+      <c r="Q40" s="6"/>
     </row>
     <row r="41">
       <c r="A41" s="4">
         <v>48</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G41" s="4">
         <v>628117306726</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L41" s="4">
         <v>70353</v>
@@ -3734,25 +3784,26 @@
       <c r="N41" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O41" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P41" s="8">
+      <c r="O41" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P41" s="5">
         <v>31501</v>
       </c>
+      <c r="Q41" s="6"/>
     </row>
     <row r="42">
       <c r="A42" s="4">
         <v>49</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>99</v>
@@ -3764,16 +3815,16 @@
         <v>628169005007</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L42" s="4">
         <v>37034</v>
@@ -3784,12 +3835,13 @@
       <c r="N42" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O42" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P42" s="8">
+      <c r="O42" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P42" s="5">
         <v>35955</v>
       </c>
+      <c r="Q42" s="6"/>
     </row>
     <row r="43">
       <c r="A43" s="4">
@@ -3802,28 +3854,28 @@
         <v>50</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G43" s="4">
         <v>628126555106</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>130</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L43" s="4">
         <v>67645</v>
@@ -3834,46 +3886,47 @@
       <c r="N43" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O43" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P43" s="8">
+      <c r="O43" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P43" s="5">
         <v>25299</v>
       </c>
+      <c r="Q43" s="6"/>
     </row>
     <row r="44">
       <c r="A44" s="4">
         <v>51</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G44" s="4">
         <v>628149155006</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L44" s="4">
         <v>50498</v>
@@ -3884,43 +3937,44 @@
       <c r="N44" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O44" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P44" s="8">
+      <c r="O44" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P44" s="5">
         <v>39370</v>
       </c>
+      <c r="Q44" s="6"/>
     </row>
     <row r="45">
       <c r="A45" s="4">
         <v>52</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G45" s="4">
         <v>628154684194</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>79</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>79</v>
@@ -3934,12 +3988,13 @@
       <c r="N45" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O45" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P45" s="8">
+      <c r="O45" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P45" s="5">
         <v>22587</v>
       </c>
+      <c r="Q45" s="6"/>
     </row>
     <row r="46">
       <c r="A46" s="4">
@@ -3949,28 +4004,28 @@
         <v>87</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G46" s="4">
         <v>628194936391</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>108</v>
@@ -3984,12 +4039,13 @@
       <c r="N46" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O46" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P46" s="8">
+      <c r="O46" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P46" s="5">
         <v>23251</v>
       </c>
+      <c r="Q46" s="6"/>
     </row>
     <row r="47">
       <c r="A47" s="4">
@@ -4002,28 +4058,28 @@
         <v>116</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G47" s="4">
         <v>628127849284</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L47" s="4">
         <v>77123</v>
@@ -4034,12 +4090,13 @@
       <c r="N47" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O47" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P47" s="8">
+      <c r="O47" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P47" s="5">
         <v>30626</v>
       </c>
+      <c r="Q47" s="6"/>
     </row>
     <row r="48">
       <c r="A48" s="4">
@@ -4052,28 +4109,28 @@
         <v>51</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G48" s="4">
         <v>628112677786</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L48" s="4">
         <v>33722</v>
@@ -4084,37 +4141,38 @@
       <c r="N48" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O48" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P48" s="8">
+      <c r="O48" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P48" s="5">
         <v>18282</v>
       </c>
+      <c r="Q48" s="6"/>
     </row>
     <row r="49">
       <c r="A49" s="4">
         <v>56</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G49" s="4">
         <v>628121220761</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>125</v>
@@ -4134,40 +4192,41 @@
       <c r="N49" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O49" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P49" s="8">
+      <c r="O49" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P49" s="5">
         <v>22259</v>
       </c>
+      <c r="Q49" s="6"/>
     </row>
     <row r="50">
       <c r="A50" s="4">
         <v>57</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>117</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G50" s="4">
         <v>628115310415</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>129</v>
@@ -4184,28 +4243,29 @@
       <c r="N50" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O50" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P50" s="8">
+      <c r="O50" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P50" s="5">
         <v>20976</v>
       </c>
+      <c r="Q50" s="6"/>
     </row>
     <row r="51">
       <c r="A51" s="4">
         <v>58</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>124</v>
@@ -4214,16 +4274,16 @@
         <v>628192553769</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>131</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L51" s="4">
         <v>81629</v>
@@ -4234,12 +4294,13 @@
       <c r="N51" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O51" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P51" s="8">
+      <c r="O51" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P51" s="5">
         <v>26494</v>
       </c>
+      <c r="Q51" s="6"/>
     </row>
     <row r="52">
       <c r="A52" s="4">
@@ -4249,10 +4310,10 @@
         <v>47</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>56</v>
@@ -4264,7 +4325,7 @@
         <v>628153041620</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>13</v>
@@ -4284,12 +4345,13 @@
       <c r="N52" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O52" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P52" s="8">
+      <c r="O52" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P52" s="5">
         <v>26285</v>
       </c>
+      <c r="Q52" s="6"/>
     </row>
     <row r="53">
       <c r="A53" s="4">
@@ -4302,28 +4364,28 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G53" s="4">
         <v>628124226502</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L53" s="4">
         <v>42148</v>
@@ -4334,43 +4396,44 @@
       <c r="N53" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O53" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P53" s="8">
+      <c r="O53" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P53" s="5">
         <v>34851</v>
       </c>
+      <c r="Q53" s="6"/>
     </row>
     <row r="54">
       <c r="A54" s="4">
         <v>61</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>118</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G54" s="4">
         <v>628188281282</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>79</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>79</v>
@@ -4384,43 +4447,44 @@
       <c r="N54" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O54" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P54" s="8">
+      <c r="O54" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P54" s="5">
         <v>18804</v>
       </c>
+      <c r="Q54" s="6"/>
     </row>
     <row r="55">
       <c r="A55" s="4">
         <v>62</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>123</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G55" s="4">
         <v>628119837011</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>125</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>19</v>
@@ -4434,12 +4498,13 @@
       <c r="N55" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O55" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P55" s="8">
+      <c r="O55" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P55" s="5">
         <v>30029</v>
       </c>
+      <c r="Q55" s="6"/>
     </row>
     <row r="56">
       <c r="A56" s="4">
@@ -4449,31 +4514,31 @@
         <v>22</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G56" s="4">
         <v>628169948006</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L56" s="4">
         <v>45567</v>
@@ -4484,37 +4549,38 @@
       <c r="N56" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O56" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P56" s="8">
+      <c r="O56" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P56" s="5">
         <v>36232</v>
       </c>
+      <c r="Q56" s="6"/>
     </row>
     <row r="57">
       <c r="A57" s="4">
         <v>64</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G57" s="4">
         <v>628175266633</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>13</v>
@@ -4534,37 +4600,38 @@
       <c r="N57" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O57" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P57" s="8">
+      <c r="O57" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P57" s="5">
         <v>20711</v>
       </c>
+      <c r="Q57" s="6"/>
     </row>
     <row r="58">
       <c r="A58" s="4">
         <v>65</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G58" s="4">
         <v>628197777650</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>13</v>
@@ -4584,37 +4651,38 @@
       <c r="N58" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O58" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P58" s="8">
+      <c r="O58" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P58" s="5">
         <v>25965</v>
       </c>
+      <c r="Q58" s="6"/>
     </row>
     <row r="59">
       <c r="A59" s="4">
         <v>66</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G59" s="4">
         <v>628126452560</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>37</v>
@@ -4623,7 +4691,7 @@
         <v>105</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L59" s="4">
         <v>51849</v>
@@ -4634,46 +4702,47 @@
       <c r="N59" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O59" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P59" s="8">
+      <c r="O59" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P59" s="5">
         <v>38237</v>
       </c>
+      <c r="Q59" s="6"/>
     </row>
     <row r="60">
       <c r="A60" s="4">
         <v>67</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G60" s="4">
         <v>628136204146</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>106</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L60" s="4">
         <v>41691</v>
@@ -4684,37 +4753,38 @@
       <c r="N60" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O60" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P60" s="8">
+      <c r="O60" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P60" s="5">
         <v>20739</v>
       </c>
+      <c r="Q60" s="6"/>
     </row>
     <row r="61">
       <c r="A61" s="4">
         <v>68</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G61" s="4">
         <v>628175616745</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>13</v>
@@ -4734,46 +4804,47 @@
       <c r="N61" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O61" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P61" s="8">
+      <c r="O61" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P61" s="5">
         <v>38471</v>
       </c>
+      <c r="Q61" s="6"/>
     </row>
     <row r="62">
       <c r="A62" s="4">
         <v>70</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G62" s="4">
         <v>628167273043</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L62" s="4">
         <v>53063</v>
@@ -4784,28 +4855,29 @@
       <c r="N62" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O62" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P62" s="8">
+      <c r="O62" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P62" s="5">
         <v>23705</v>
       </c>
+      <c r="Q62" s="6"/>
     </row>
     <row r="63">
       <c r="A63" s="4">
         <v>71</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>12</v>
@@ -4814,7 +4886,7 @@
         <v>628141480326</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>126</v>
@@ -4823,7 +4895,7 @@
         <v>17</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L63" s="4">
         <v>53612</v>
@@ -4834,37 +4906,38 @@
       <c r="N63" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O63" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P63" s="8">
+      <c r="O63" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P63" s="5">
         <v>19186</v>
       </c>
+      <c r="Q63" s="6"/>
     </row>
     <row r="64">
       <c r="A64" s="4">
         <v>72</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G64" s="4">
         <v>628184551228</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>37</v>
@@ -4873,7 +4946,7 @@
         <v>132</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L64" s="4">
         <v>20666</v>
@@ -4884,43 +4957,44 @@
       <c r="N64" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O64" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P64" s="8">
+      <c r="O64" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P64" s="5">
         <v>21677</v>
       </c>
+      <c r="Q64" s="6"/>
     </row>
     <row r="65">
       <c r="A65" s="4">
         <v>74</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G65" s="4">
         <v>628156899295</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>108</v>
@@ -4934,12 +5008,13 @@
       <c r="N65" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O65" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P65" s="8">
+      <c r="O65" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P65" s="5">
         <v>32131</v>
       </c>
+      <c r="Q65" s="6"/>
     </row>
     <row r="66">
       <c r="A66" s="4">
@@ -4949,31 +5024,31 @@
         <v>23</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G66" s="4">
         <v>628107847433</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L66" s="4">
         <v>86563</v>
@@ -4984,12 +5059,13 @@
       <c r="N66" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O66" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P66" s="8">
+      <c r="O66" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P66" s="5">
         <v>38085</v>
       </c>
+      <c r="Q66" s="6"/>
     </row>
     <row r="67">
       <c r="A67" s="4">
@@ -4999,13 +5075,13 @@
         <v>88</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>35</v>
@@ -5014,13 +5090,13 @@
         <v>628169713310</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>108</v>
@@ -5034,12 +5110,13 @@
       <c r="N67" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O67" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P67" s="8">
+      <c r="O67" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P67" s="5">
         <v>25457</v>
       </c>
+      <c r="Q67" s="6"/>
     </row>
     <row r="68">
       <c r="A68" s="4">
@@ -5052,25 +5129,25 @@
         <v>52</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G68" s="4">
         <v>628165280581</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>79</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>79</v>
@@ -5084,37 +5161,38 @@
       <c r="N68" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O68" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P68" s="8">
+      <c r="O68" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P68" s="5">
         <v>26136</v>
       </c>
+      <c r="Q68" s="6"/>
     </row>
     <row r="69">
       <c r="A69" s="4">
         <v>80</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G69" s="4">
         <v>628195219847</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>79</v>
@@ -5134,12 +5212,13 @@
       <c r="N69" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O69" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P69" s="8">
+      <c r="O69" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P69" s="5">
         <v>20946</v>
       </c>
+      <c r="Q69" s="6"/>
     </row>
     <row r="70">
       <c r="A70" s="4">
@@ -5149,10 +5228,10 @@
         <v>71</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>98</v>
@@ -5164,13 +5243,13 @@
         <v>628127980061</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>79</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>79</v>
@@ -5184,12 +5263,13 @@
       <c r="N70" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O70" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P70" s="8">
+      <c r="O70" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P70" s="5">
         <v>38177</v>
       </c>
+      <c r="Q70" s="6"/>
     </row>
     <row r="71">
       <c r="A71" s="4">
@@ -5199,22 +5279,22 @@
         <v>3</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G71" s="4">
         <v>628185575769</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>13</v>
@@ -5234,46 +5314,47 @@
       <c r="N71" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O71" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P71" s="8">
+      <c r="O71" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P71" s="5">
         <v>28063</v>
       </c>
+      <c r="Q71" s="6"/>
     </row>
     <row r="72">
       <c r="A72" s="4">
         <v>1</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>97</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G72" s="4">
         <v>628197758156</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>126</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L72" s="4">
         <v>75368</v>
@@ -5284,28 +5365,29 @@
       <c r="N72" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O72" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P72" s="8">
+      <c r="O72" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P72" s="5">
         <v>25741</v>
       </c>
+      <c r="Q72" s="6"/>
     </row>
     <row r="73">
       <c r="A73" s="4">
         <v>2</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>36</v>
@@ -5314,16 +5396,16 @@
         <v>628196599832</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L73" s="4">
         <v>51931</v>
@@ -5334,12 +5416,13 @@
       <c r="N73" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O73" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P73" s="8">
+      <c r="O73" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P73" s="5">
         <v>34410</v>
       </c>
+      <c r="Q73" s="6"/>
     </row>
     <row r="74">
       <c r="A74" s="4">
@@ -5352,28 +5435,28 @@
         <v>30</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G74" s="4">
         <v>628185324029</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L74" s="4">
         <v>60425</v>
@@ -5384,25 +5467,26 @@
       <c r="N74" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O74" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P74" s="8">
+      <c r="O74" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P74" s="5">
         <v>22174</v>
       </c>
+      <c r="Q74" s="6"/>
     </row>
     <row r="75">
       <c r="A75" s="4">
         <v>4</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>100</v>
@@ -5414,16 +5498,16 @@
         <v>628192785248</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>130</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L75" s="4">
         <v>34249</v>
@@ -5434,12 +5518,13 @@
       <c r="N75" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O75" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P75" s="8">
+      <c r="O75" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P75" s="5">
         <v>30798</v>
       </c>
+      <c r="Q75" s="6"/>
     </row>
     <row r="76">
       <c r="A76" s="4">
@@ -5449,10 +5534,10 @@
         <v>112</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>56</v>
@@ -5464,16 +5549,16 @@
         <v>628164447163</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L76" s="4">
         <v>46731</v>
@@ -5484,43 +5569,44 @@
       <c r="N76" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O76" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P76" s="8">
+      <c r="O76" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P76" s="5">
         <v>20608</v>
       </c>
+      <c r="Q76" s="6"/>
     </row>
     <row r="77">
       <c r="A77" s="4">
         <v>6</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G77" s="4">
         <v>628172700909</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>125</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>19</v>
@@ -5534,12 +5620,13 @@
       <c r="N77" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O77" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P77" s="8">
+      <c r="O77" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P77" s="5">
         <v>31063</v>
       </c>
+      <c r="Q77" s="6"/>
     </row>
     <row r="78">
       <c r="A78" s="4">
@@ -5549,28 +5636,28 @@
         <v>48</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G78" s="4">
         <v>628174611618</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>108</v>
@@ -5584,43 +5671,44 @@
       <c r="N78" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O78" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P78" s="8">
+      <c r="O78" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P78" s="5">
         <v>34690</v>
       </c>
+      <c r="Q78" s="6"/>
     </row>
     <row r="79">
       <c r="A79" s="4">
         <v>8</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G79" s="4">
         <v>628190935259</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>125</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>19</v>
@@ -5634,43 +5722,44 @@
       <c r="N79" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O79" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P79" s="8">
+      <c r="O79" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P79" s="5">
         <v>25723</v>
       </c>
+      <c r="Q79" s="6"/>
     </row>
     <row r="80">
       <c r="A80" s="4">
         <v>9</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G80" s="4">
         <v>628121226923</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>79</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>79</v>
@@ -5684,46 +5773,47 @@
       <c r="N80" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O80" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P80" s="8">
+      <c r="O80" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P80" s="5">
         <v>36276</v>
       </c>
+      <c r="Q80" s="6"/>
     </row>
     <row r="81">
       <c r="A81" s="4">
         <v>10</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G81" s="4">
         <v>628167871391</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L81" s="4">
         <v>18631</v>
@@ -5734,12 +5824,13 @@
       <c r="N81" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O81" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P81" s="8">
+      <c r="O81" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P81" s="5">
         <v>32853</v>
       </c>
+      <c r="Q81" s="6"/>
     </row>
     <row r="82">
       <c r="A82" s="4">
@@ -5752,10 +5843,10 @@
         <v>31</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>124</v>
@@ -5764,16 +5855,16 @@
         <v>628192431324</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L82" s="4">
         <v>58937</v>
@@ -5784,28 +5875,29 @@
       <c r="N82" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O82" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P82" s="8">
+      <c r="O82" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P82" s="5">
         <v>29676</v>
       </c>
+      <c r="Q82" s="6"/>
     </row>
     <row r="83">
       <c r="A83" s="4">
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>12</v>
@@ -5814,13 +5906,13 @@
         <v>628129715579</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>82</v>
@@ -5834,12 +5926,13 @@
       <c r="N83" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O83" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P83" s="8">
+      <c r="O83" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P83" s="5">
         <v>34339</v>
       </c>
+      <c r="Q83" s="6"/>
     </row>
     <row r="84">
       <c r="A84" s="4">
@@ -5852,19 +5945,19 @@
         <v>32</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G84" s="4">
         <v>628121435599</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>126</v>
@@ -5873,7 +5966,7 @@
         <v>134</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L84" s="4">
         <v>12040</v>
@@ -5884,46 +5977,47 @@
       <c r="N84" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O84" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P84" s="8">
+      <c r="O84" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P84" s="5">
         <v>38838</v>
       </c>
+      <c r="Q84" s="6"/>
     </row>
     <row r="85">
       <c r="A85" s="4">
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G85" s="4">
         <v>628137400075</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L85" s="4">
         <v>36695</v>
@@ -5934,28 +6028,29 @@
       <c r="N85" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O85" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P85" s="8">
+      <c r="O85" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P85" s="5">
         <v>27836</v>
       </c>
+      <c r="Q85" s="6"/>
     </row>
     <row r="86">
       <c r="A86" s="4">
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>101</v>
@@ -5964,13 +6059,13 @@
         <v>628155162238</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>125</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>19</v>
@@ -5984,12 +6079,13 @@
       <c r="N86" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O86" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P86" s="8">
+      <c r="O86" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P86" s="5">
         <v>26062</v>
       </c>
+      <c r="Q86" s="6"/>
     </row>
     <row r="87">
       <c r="A87" s="4">
@@ -5999,10 +6095,10 @@
         <v>25</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>54</v>
@@ -6014,16 +6110,16 @@
         <v>628176360235</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>135</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L87" s="4">
         <v>43524</v>
@@ -6034,12 +6130,13 @@
       <c r="N87" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O87" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P87" s="8">
+      <c r="O87" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P87" s="5">
         <v>23426</v>
       </c>
+      <c r="Q87" s="6"/>
     </row>
     <row r="88">
       <c r="A88" s="4">
@@ -6049,10 +6146,10 @@
         <v>4</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>54</v>
@@ -6064,16 +6161,16 @@
         <v>628113713141</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L88" s="4">
         <v>32693</v>
@@ -6084,12 +6181,13 @@
       <c r="N88" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O88" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P88" s="8">
+      <c r="O88" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P88" s="5">
         <v>23715</v>
       </c>
+      <c r="Q88" s="6"/>
     </row>
     <row r="89">
       <c r="A89" s="4">
@@ -6099,28 +6197,28 @@
         <v>26</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G89" s="4">
         <v>628163468245</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>125</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>19</v>
@@ -6134,37 +6232,38 @@
       <c r="N89" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O89" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P89" s="8">
+      <c r="O89" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P89" s="5">
         <v>18994</v>
       </c>
+      <c r="Q89" s="6"/>
     </row>
     <row r="90">
       <c r="A90" s="4">
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G90" s="4">
         <v>628143505815</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>37</v>
@@ -6173,7 +6272,7 @@
         <v>65</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L90" s="4">
         <v>81036</v>
@@ -6184,28 +6283,29 @@
       <c r="N90" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O90" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P90" s="8">
+      <c r="O90" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P90" s="5">
         <v>34955</v>
       </c>
+      <c r="Q90" s="6"/>
     </row>
     <row r="91">
       <c r="A91" s="4">
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>124</v>
@@ -6214,13 +6314,13 @@
         <v>628103797703</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>125</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>19</v>
@@ -6234,46 +6334,47 @@
       <c r="N91" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O91" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P91" s="8">
+      <c r="O91" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P91" s="5">
         <v>21097</v>
       </c>
+      <c r="Q91" s="6"/>
     </row>
     <row r="92">
       <c r="A92" s="4">
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G92" s="4">
         <v>628140904430</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L92" s="4">
         <v>25921</v>
@@ -6284,46 +6385,47 @@
       <c r="N92" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O92" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P92" s="8">
+      <c r="O92" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P92" s="5">
         <v>23180</v>
       </c>
+      <c r="Q92" s="6"/>
     </row>
     <row r="93">
       <c r="A93" s="4">
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G93" s="4">
         <v>628170565757</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L93" s="4">
         <v>62383</v>
@@ -6334,43 +6436,44 @@
       <c r="N93" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O93" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P93" s="8">
+      <c r="O93" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P93" s="5">
         <v>18843</v>
       </c>
+      <c r="Q93" s="6"/>
     </row>
     <row r="94">
       <c r="A94" s="4">
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G94" s="4">
         <v>628188586480</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>82</v>
@@ -6384,28 +6487,29 @@
       <c r="N94" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O94" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P94" s="8">
+      <c r="O94" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P94" s="5">
         <v>34081</v>
       </c>
+      <c r="Q94" s="6"/>
     </row>
     <row r="95">
       <c r="A95" s="4">
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>124</v>
@@ -6414,7 +6518,7 @@
         <v>628116656095</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>125</v>
@@ -6434,43 +6538,44 @@
       <c r="N95" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O95" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P95" s="8">
+      <c r="O95" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P95" s="5">
         <v>39376</v>
       </c>
+      <c r="Q95" s="6"/>
     </row>
     <row r="96">
       <c r="A96" s="4">
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G96" s="4">
         <v>628112221587</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>82</v>
@@ -6484,46 +6589,47 @@
       <c r="N96" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O96" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P96" s="8">
+      <c r="O96" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P96" s="5">
         <v>21796</v>
       </c>
+      <c r="Q96" s="6"/>
     </row>
     <row r="97">
       <c r="A97" s="4">
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>121</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G97" s="4">
         <v>628157588700</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I97" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L97" s="4">
         <v>61283</v>
@@ -6534,12 +6640,13 @@
       <c r="N97" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O97" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P97" s="8">
+      <c r="O97" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P97" s="5">
         <v>39476</v>
       </c>
+      <c r="Q97" s="6"/>
     </row>
     <row r="98">
       <c r="A98" s="4">
@@ -6552,10 +6659,10 @@
         <v>34</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>35</v>
@@ -6564,16 +6671,16 @@
         <v>628196209997</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L98" s="4">
         <v>12789</v>
@@ -6584,43 +6691,44 @@
       <c r="N98" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O98" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P98" s="8">
+      <c r="O98" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P98" s="5">
         <v>25291</v>
       </c>
+      <c r="Q98" s="6"/>
     </row>
     <row r="99">
       <c r="A99" s="4">
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G99" s="4">
         <v>628142193739</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I99" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>108</v>
@@ -6634,46 +6742,47 @@
       <c r="N99" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O99" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P99" s="8">
+      <c r="O99" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P99" s="5">
         <v>29640</v>
       </c>
+      <c r="Q99" s="6"/>
     </row>
     <row r="100">
       <c r="A100" s="4">
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G100" s="4">
         <v>628135290576</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>107</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L100" s="4">
         <v>72336</v>
@@ -6684,46 +6793,47 @@
       <c r="N100" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O100" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P100" s="8">
+      <c r="O100" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P100" s="5">
         <v>20972</v>
       </c>
+      <c r="Q100" s="6"/>
     </row>
     <row r="101">
       <c r="A101" s="4">
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G101" s="4">
         <v>628158372735</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>66</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L101" s="4">
         <v>69707</v>
@@ -6734,12 +6844,13 @@
       <c r="N101" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O101" s="6">
-        <v>45948.226643518516</v>
-      </c>
-      <c r="P101" s="8">
+      <c r="O101" s="5">
+        <v>45948.226643518516</v>
+      </c>
+      <c r="P101" s="5">
         <v>21698</v>
       </c>
+      <c r="Q101" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/E2E/Web/Web_E2E_UserRegistration/Default.xlsx
+++ b/E2E/Web/Web_E2E_UserRegistration/Default.xlsx
@@ -100,6 +100,9 @@
     <t>hendrasantoso88</t>
   </si>
   <si>
+    <t>agus.pratama109@example.com</t>
+  </si>
+  <si>
     <t>siti.susilo27@example.com</t>
   </si>
   <si>
@@ -271,6 +274,9 @@
     <t>OFF</t>
   </si>
   <si>
+    <t>aguspratama109</t>
+  </si>
+  <si>
     <t>hendratan12</t>
   </si>
   <si>
@@ -523,9 +529,6 @@
     <t>indahlim58</t>
   </si>
   <si>
-    <t>agus.pratama106@example.com</t>
-  </si>
-  <si>
     <t>rina.hidayat1000@example.com</t>
   </si>
   <si>
@@ -812,9 +815,6 @@
   </si>
   <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>aguspratama107</t>
   </si>
   <si>
     <t>budilim29</t>
@@ -1343,9 +1343,7 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1356,7 +1354,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1381,10 +1381,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1685,7 +1685,7 @@
   <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -1699,22 +1699,22 @@
   <sheetData>
     <row r="1" ht="14.95" s="8" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>337</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>375</v>
@@ -1726,27 +1726,27 @@
         <v>301</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>356</v>
       </c>
     </row>
@@ -1755,31 +1755,31 @@
         <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>265</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>168</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G2" s="4">
         <v>628134344765</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>287</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>353</v>
@@ -1788,10 +1788,10 @@
         <v>63877</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O2" s="5">
         <v>45948.226643518516</v>
@@ -1799,8 +1799,8 @@
       <c r="P2" s="5">
         <v>32662</v>
       </c>
-      <c r="Q2" s="6" t="s">
-        <v>138</v>
+      <c r="Q2" s="7" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3">
@@ -1808,16 +1808,16 @@
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>344</v>
@@ -1826,13 +1826,13 @@
         <v>628147303132</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>287</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>353</v>
@@ -1841,10 +1841,10 @@
         <v>31769</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O3" s="5">
         <v>45948.226643518516</v>
@@ -1852,50 +1852,50 @@
       <c r="P3" s="5">
         <v>33092</v>
       </c>
-      <c r="Q3" s="6"/>
+      <c r="Q3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="4">
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>320</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G4" s="4">
         <v>628129434850</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L4" s="4">
         <v>39679</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O4" s="5">
         <v>45948.226643518516</v>
@@ -1903,7 +1903,7 @@
       <c r="P4" s="5">
         <v>33990</v>
       </c>
-      <c r="Q4" s="6"/>
+      <c r="Q4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="4">
@@ -1913,40 +1913,40 @@
         <v>307</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G5" s="4">
         <v>628183932230</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>288</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L5" s="4">
         <v>82240</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O5" s="5">
         <v>45948.226643518516</v>
@@ -1954,38 +1954,38 @@
       <c r="P5" s="5">
         <v>23689</v>
       </c>
-      <c r="Q5" s="6"/>
+      <c r="Q5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="4">
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>321</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6" s="4">
         <v>628146987673</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>289</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>354</v>
@@ -1994,10 +1994,10 @@
         <v>64113</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O6" s="5">
         <v>45948.226643518516</v>
@@ -2005,38 +2005,38 @@
       <c r="P6" s="5">
         <v>30313</v>
       </c>
-      <c r="Q6" s="6"/>
+      <c r="Q6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="4">
         <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G7" s="4">
         <v>628158682959</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>19</v>
@@ -2045,10 +2045,10 @@
         <v>83358</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O7" s="5">
         <v>45948.226643518516</v>
@@ -2056,7 +2056,7 @@
       <c r="P7" s="5">
         <v>21671</v>
       </c>
-      <c r="Q7" s="6"/>
+      <c r="Q7" s="7"/>
     </row>
     <row r="8">
       <c r="A8" s="4">
@@ -2069,25 +2069,25 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G8" s="4">
         <v>628175960451</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>19</v>
@@ -2096,10 +2096,10 @@
         <v>31481</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O8" s="5">
         <v>45948.226643518516</v>
@@ -2107,50 +2107,50 @@
       <c r="P8" s="5">
         <v>35330</v>
       </c>
-      <c r="Q8" s="6"/>
+      <c r="Q8" s="7"/>
     </row>
     <row r="9">
       <c r="A9" s="4">
         <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>372</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G9" s="4">
         <v>628119582821</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>288</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L9" s="4">
         <v>74167</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O9" s="5">
         <v>45948.226643518516</v>
@@ -2158,32 +2158,32 @@
       <c r="P9" s="5">
         <v>20693</v>
       </c>
-      <c r="Q9" s="6"/>
+      <c r="Q9" s="7"/>
     </row>
     <row r="10">
       <c r="A10" s="4">
         <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="4">
         <v>628100298274</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>288</v>
@@ -2192,16 +2192,16 @@
         <v>14</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L10" s="4">
         <v>59881</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O10" s="5">
         <v>45948.226643518516</v>
@@ -2209,7 +2209,7 @@
       <c r="P10" s="5">
         <v>20937</v>
       </c>
-      <c r="Q10" s="6"/>
+      <c r="Q10" s="7"/>
     </row>
     <row r="11">
       <c r="A11" s="4">
@@ -2222,37 +2222,37 @@
         <v>298</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G11" s="4">
         <v>628130158689</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L11" s="4">
         <v>65183</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O11" s="5">
         <v>45948.226643518516</v>
@@ -2260,38 +2260,38 @@
       <c r="P11" s="5">
         <v>33429</v>
       </c>
-      <c r="Q11" s="6"/>
+      <c r="Q11" s="7"/>
     </row>
     <row r="12">
       <c r="A12" s="4">
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G12" s="4">
         <v>628108570103</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>327</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>292</v>
@@ -2300,10 +2300,10 @@
         <v>75703</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O12" s="5">
         <v>45948.226643518516</v>
@@ -2311,35 +2311,35 @@
       <c r="P12" s="5">
         <v>30297</v>
       </c>
-      <c r="Q12" s="6"/>
+      <c r="Q12" s="7"/>
     </row>
     <row r="13">
       <c r="A13" s="4">
         <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G13" s="4">
         <v>628125724138</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>346</v>
@@ -2351,10 +2351,10 @@
         <v>63899</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O13" s="5">
         <v>45948.226643518516</v>
@@ -2362,7 +2362,7 @@
       <c r="P13" s="5">
         <v>26108</v>
       </c>
-      <c r="Q13" s="6"/>
+      <c r="Q13" s="7"/>
     </row>
     <row r="14">
       <c r="A14" s="4">
@@ -2375,10 +2375,10 @@
         <v>276</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>324</v>
@@ -2387,13 +2387,13 @@
         <v>628156171394</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>289</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>354</v>
@@ -2402,10 +2402,10 @@
         <v>82659</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O14" s="5">
         <v>45948.226643518516</v>
@@ -2413,23 +2413,23 @@
       <c r="P14" s="5">
         <v>39591</v>
       </c>
-      <c r="Q14" s="6"/>
+      <c r="Q14" s="7"/>
     </row>
     <row r="15">
       <c r="A15" s="4">
         <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>277</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>325</v>
@@ -2438,10 +2438,10 @@
         <v>628144335819</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>328</v>
@@ -2453,10 +2453,10 @@
         <v>34533</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O15" s="5">
         <v>45948.226643518516</v>
@@ -2464,20 +2464,20 @@
       <c r="P15" s="5">
         <v>37483</v>
       </c>
-      <c r="Q15" s="6"/>
+      <c r="Q15" s="7"/>
     </row>
     <row r="16">
       <c r="A16" s="4">
         <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>322</v>
@@ -2489,10 +2489,10 @@
         <v>628154822059</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>376</v>
@@ -2504,10 +2504,10 @@
         <v>25313</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O16" s="5">
         <v>45948.226643518516</v>
@@ -2515,23 +2515,23 @@
       <c r="P16" s="5">
         <v>35006</v>
       </c>
-      <c r="Q16" s="6"/>
+      <c r="Q16" s="7"/>
     </row>
     <row r="17">
       <c r="A17" s="4">
         <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>326</v>
@@ -2540,25 +2540,25 @@
         <v>628158274276</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L17" s="4">
         <v>82651</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O17" s="5">
         <v>45948.226643518516</v>
@@ -2566,7 +2566,7 @@
       <c r="P17" s="5">
         <v>31866</v>
       </c>
-      <c r="Q17" s="6"/>
+      <c r="Q17" s="7"/>
     </row>
     <row r="18">
       <c r="A18" s="4">
@@ -2579,37 +2579,37 @@
         <v>362</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>321</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G18" s="4">
         <v>628107910627</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>288</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L18" s="4">
         <v>22934</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O18" s="5">
         <v>45948.226643518516</v>
@@ -2617,20 +2617,20 @@
       <c r="P18" s="5">
         <v>32491</v>
       </c>
-      <c r="Q18" s="6"/>
+      <c r="Q18" s="7"/>
     </row>
     <row r="19">
       <c r="A19" s="4">
         <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>372</v>
@@ -2642,13 +2642,13 @@
         <v>628143713500</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>355</v>
@@ -2657,10 +2657,10 @@
         <v>45752</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O19" s="5">
         <v>45948.226643518516</v>
@@ -2668,32 +2668,32 @@
       <c r="P19" s="5">
         <v>23085</v>
       </c>
-      <c r="Q19" s="6"/>
+      <c r="Q19" s="7"/>
     </row>
     <row r="20">
       <c r="A20" s="4">
         <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>363</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G20" s="4">
         <v>628195478794</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>288</v>
@@ -2702,16 +2702,16 @@
         <v>377</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L20" s="4">
         <v>87015</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O20" s="5">
         <v>45948.226643518516</v>
@@ -2719,7 +2719,7 @@
       <c r="P20" s="5">
         <v>28526</v>
       </c>
-      <c r="Q20" s="6"/>
+      <c r="Q20" s="7"/>
     </row>
     <row r="21">
       <c r="A21" s="4">
@@ -2729,40 +2729,40 @@
         <v>267</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G21" s="4">
         <v>628147715731</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>288</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L21" s="4">
         <v>74993</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O21" s="5">
         <v>45948.226643518516</v>
@@ -2770,7 +2770,7 @@
       <c r="P21" s="5">
         <v>26768</v>
       </c>
-      <c r="Q21" s="6"/>
+      <c r="Q21" s="7"/>
     </row>
     <row r="22">
       <c r="A22" s="4">
@@ -2783,10 +2783,10 @@
         <v>364</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>324</v>
@@ -2795,25 +2795,25 @@
         <v>628109777295</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L22" s="4">
         <v>71961</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O22" s="5">
         <v>45948.226643518516</v>
@@ -2821,23 +2821,23 @@
       <c r="P22" s="5">
         <v>23176</v>
       </c>
-      <c r="Q22" s="6"/>
+      <c r="Q22" s="7"/>
     </row>
     <row r="23">
       <c r="A23" s="4">
         <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>324</v>
@@ -2846,25 +2846,25 @@
         <v>628150425593</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>290</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L23" s="4">
         <v>23933</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O23" s="5">
         <v>45948.226643518516</v>
@@ -2872,32 +2872,32 @@
       <c r="P23" s="5">
         <v>19802</v>
       </c>
-      <c r="Q23" s="6"/>
+      <c r="Q23" s="7"/>
     </row>
     <row r="24">
       <c r="A24" s="4">
         <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>312</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G24" s="4">
         <v>628164711773</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>327</v>
@@ -2912,10 +2912,10 @@
         <v>56744</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O24" s="5">
         <v>45948.226643518516</v>
@@ -2923,32 +2923,32 @@
       <c r="P24" s="5">
         <v>30731</v>
       </c>
-      <c r="Q24" s="6"/>
+      <c r="Q24" s="7"/>
     </row>
     <row r="25">
       <c r="A25" s="4">
         <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G25" s="4">
         <v>628168934530</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>327</v>
@@ -2963,10 +2963,10 @@
         <v>14509</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O25" s="5">
         <v>45948.226643518516</v>
@@ -2974,7 +2974,7 @@
       <c r="P25" s="5">
         <v>23897</v>
       </c>
-      <c r="Q25" s="6"/>
+      <c r="Q25" s="7"/>
     </row>
     <row r="26">
       <c r="A26" s="4">
@@ -2987,25 +2987,25 @@
         <v>7</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G26" s="4">
         <v>628191788162</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>327</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>292</v>
@@ -3014,10 +3014,10 @@
         <v>80524</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="5">
         <v>45948.226643518516</v>
@@ -3025,32 +3025,32 @@
       <c r="P26" s="5">
         <v>25696</v>
       </c>
-      <c r="Q26" s="6"/>
+      <c r="Q26" s="7"/>
     </row>
     <row r="27">
       <c r="A27" s="4">
         <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>278</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G27" s="4">
         <v>628114734369</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>327</v>
@@ -3065,10 +3065,10 @@
         <v>82659</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O27" s="5">
         <v>45948.226643518516</v>
@@ -3076,7 +3076,7 @@
       <c r="P27" s="5">
         <v>34796</v>
       </c>
-      <c r="Q27" s="6"/>
+      <c r="Q27" s="7"/>
     </row>
     <row r="28">
       <c r="A28" s="4">
@@ -3086,22 +3086,22 @@
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G28" s="4">
         <v>628105740885</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>289</v>
@@ -3116,10 +3116,10 @@
         <v>88449</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O28" s="5">
         <v>45948.226643518516</v>
@@ -3127,38 +3127,38 @@
       <c r="P28" s="5">
         <v>29009</v>
       </c>
-      <c r="Q28" s="6"/>
+      <c r="Q28" s="7"/>
     </row>
     <row r="29">
       <c r="A29" s="4">
         <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G29" s="4">
         <v>628120859173</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>354</v>
@@ -3167,10 +3167,10 @@
         <v>64746</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O29" s="5">
         <v>45948.226643518516</v>
@@ -3178,38 +3178,38 @@
       <c r="P29" s="5">
         <v>36847</v>
       </c>
-      <c r="Q29" s="6"/>
+      <c r="Q29" s="7"/>
     </row>
     <row r="30">
       <c r="A30" s="4">
         <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G30" s="4">
         <v>628183203131</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>289</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>354</v>
@@ -3218,10 +3218,10 @@
         <v>85811</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O30" s="5">
         <v>45948.226643518516</v>
@@ -3229,23 +3229,23 @@
       <c r="P30" s="5">
         <v>39795</v>
       </c>
-      <c r="Q30" s="6"/>
+      <c r="Q30" s="7"/>
     </row>
     <row r="31">
       <c r="A31" s="4">
         <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>300</v>
@@ -3254,13 +3254,13 @@
         <v>628157311837</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>355</v>
@@ -3269,10 +3269,10 @@
         <v>74972</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O31" s="5">
         <v>45948.226643518516</v>
@@ -3280,7 +3280,7 @@
       <c r="P31" s="5">
         <v>34669</v>
       </c>
-      <c r="Q31" s="6"/>
+      <c r="Q31" s="7"/>
     </row>
     <row r="32">
       <c r="A32" s="4">
@@ -3293,10 +3293,10 @@
         <v>365</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>11</v>
@@ -3305,25 +3305,25 @@
         <v>628144482182</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L32" s="4">
         <v>72047</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O32" s="5">
         <v>45948.226643518516</v>
@@ -3331,38 +3331,38 @@
       <c r="P32" s="5">
         <v>29053</v>
       </c>
-      <c r="Q32" s="6"/>
+      <c r="Q32" s="7"/>
     </row>
     <row r="33">
       <c r="A33" s="4">
         <v>15</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G33" s="4">
         <v>628126703286</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>287</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>353</v>
@@ -3371,10 +3371,10 @@
         <v>37901</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O33" s="5">
         <v>45948.226643518516</v>
@@ -3382,7 +3382,7 @@
       <c r="P33" s="5">
         <v>23277</v>
       </c>
-      <c r="Q33" s="6"/>
+      <c r="Q33" s="7"/>
     </row>
     <row r="34">
       <c r="A34" s="4">
@@ -3392,22 +3392,22 @@
         <v>308</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G34" s="4">
         <v>628133123271</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>287</v>
@@ -3422,10 +3422,10 @@
         <v>48445</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O34" s="5">
         <v>45948.226643518516</v>
@@ -3433,7 +3433,7 @@
       <c r="P34" s="5">
         <v>32096</v>
       </c>
-      <c r="Q34" s="6"/>
+      <c r="Q34" s="7"/>
     </row>
     <row r="35">
       <c r="A35" s="4">
@@ -3443,28 +3443,28 @@
         <v>357</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G35" s="4">
         <v>628183298096</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>287</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>353</v>
@@ -3473,10 +3473,10 @@
         <v>16134</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O35" s="5">
         <v>45948.226643518516</v>
@@ -3484,7 +3484,7 @@
       <c r="P35" s="5">
         <v>23530</v>
       </c>
-      <c r="Q35" s="6"/>
+      <c r="Q35" s="7"/>
     </row>
     <row r="36">
       <c r="A36" s="4">
@@ -3494,28 +3494,28 @@
         <v>333</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G36" s="4">
         <v>628106671721</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>287</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>353</v>
@@ -3524,10 +3524,10 @@
         <v>15135</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O36" s="5">
         <v>45948.226643518516</v>
@@ -3535,38 +3535,38 @@
       <c r="P36" s="5">
         <v>38397</v>
       </c>
-      <c r="Q36" s="6"/>
+      <c r="Q36" s="7"/>
     </row>
     <row r="37">
       <c r="A37" s="4">
         <v>73</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>338</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G37" s="4">
         <v>628189086695</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>287</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>353</v>
@@ -3575,10 +3575,10 @@
         <v>61650</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O37" s="5">
         <v>45948.226643518516</v>
@@ -3586,7 +3586,7 @@
       <c r="P37" s="5">
         <v>21881</v>
       </c>
-      <c r="Q37" s="6"/>
+      <c r="Q37" s="7"/>
     </row>
     <row r="38">
       <c r="A38" s="4">
@@ -3599,25 +3599,25 @@
         <v>299</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>321</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G38" s="4">
         <v>628139136636</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>287</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>353</v>
@@ -3626,10 +3626,10 @@
         <v>40613</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O38" s="5">
         <v>45948.226643518516</v>
@@ -3637,7 +3637,7 @@
       <c r="P38" s="5">
         <v>31514</v>
       </c>
-      <c r="Q38" s="6"/>
+      <c r="Q38" s="7"/>
     </row>
     <row r="39">
       <c r="A39" s="4">
@@ -3647,28 +3647,28 @@
         <v>20</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>373</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G39" s="4">
         <v>628191906216</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>287</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>353</v>
@@ -3677,10 +3677,10 @@
         <v>22494</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O39" s="5">
         <v>45948.226643518516</v>
@@ -3688,7 +3688,7 @@
       <c r="P39" s="5">
         <v>18630</v>
       </c>
-      <c r="Q39" s="6"/>
+      <c r="Q39" s="7"/>
     </row>
     <row r="40">
       <c r="A40" s="4">
@@ -3698,28 +3698,28 @@
         <v>269</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>285</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G40" s="4">
         <v>628143603294</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>327</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>292</v>
@@ -3728,10 +3728,10 @@
         <v>26759</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O40" s="5">
         <v>45948.226643518516</v>
@@ -3739,7 +3739,7 @@
       <c r="P40" s="5">
         <v>21130</v>
       </c>
-      <c r="Q40" s="6"/>
+      <c r="Q40" s="7"/>
     </row>
     <row r="41">
       <c r="A41" s="4">
@@ -3749,28 +3749,28 @@
         <v>270</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>286</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G41" s="4">
         <v>628117306726</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>354</v>
@@ -3779,10 +3779,10 @@
         <v>70353</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O41" s="5">
         <v>45948.226643518516</v>
@@ -3790,7 +3790,7 @@
       <c r="P41" s="5">
         <v>31501</v>
       </c>
-      <c r="Q41" s="6"/>
+      <c r="Q41" s="7"/>
     </row>
     <row r="42">
       <c r="A42" s="4">
@@ -3800,40 +3800,40 @@
         <v>359</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G42" s="4">
         <v>628169005007</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>303</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L42" s="4">
         <v>37034</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O42" s="5">
         <v>45948.226643518516</v>
@@ -3841,38 +3841,38 @@
       <c r="P42" s="5">
         <v>35955</v>
       </c>
-      <c r="Q42" s="6"/>
+      <c r="Q42" s="7"/>
     </row>
     <row r="43">
       <c r="A43" s="4">
         <v>50</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>321</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G43" s="4">
         <v>628126555106</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>354</v>
@@ -3881,10 +3881,10 @@
         <v>67645</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O43" s="5">
         <v>45948.226643518516</v>
@@ -3892,38 +3892,38 @@
       <c r="P43" s="5">
         <v>25299</v>
       </c>
-      <c r="Q43" s="6"/>
+      <c r="Q43" s="7"/>
     </row>
     <row r="44">
       <c r="A44" s="4">
         <v>51</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G44" s="4">
         <v>628149155006</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>327</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>292</v>
@@ -3932,10 +3932,10 @@
         <v>50498</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O44" s="5">
         <v>45948.226643518516</v>
@@ -3943,23 +3943,23 @@
       <c r="P44" s="5">
         <v>39370</v>
       </c>
-      <c r="Q44" s="6"/>
+      <c r="Q44" s="7"/>
     </row>
     <row r="45">
       <c r="A45" s="4">
         <v>52</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>325</v>
@@ -3968,25 +3968,25 @@
         <v>628154684194</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L45" s="4">
         <v>77810</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O45" s="5">
         <v>45948.226643518516</v>
@@ -3994,50 +3994,50 @@
       <c r="P45" s="5">
         <v>22587</v>
       </c>
-      <c r="Q45" s="6"/>
+      <c r="Q45" s="7"/>
     </row>
     <row r="46">
       <c r="A46" s="4">
         <v>53</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>313</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G46" s="4">
         <v>628194936391</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L46" s="4">
         <v>62938</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O46" s="5">
         <v>45948.226643518516</v>
@@ -4045,50 +4045,50 @@
       <c r="P46" s="5">
         <v>23251</v>
       </c>
-      <c r="Q46" s="6"/>
+      <c r="Q46" s="7"/>
     </row>
     <row r="47">
       <c r="A47" s="4">
         <v>54</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G47" s="4">
         <v>628127849284</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>379</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L47" s="4">
         <v>77123</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O47" s="5">
         <v>45948.226643518516</v>
@@ -4096,50 +4096,50 @@
       <c r="P47" s="5">
         <v>30626</v>
       </c>
-      <c r="Q47" s="6"/>
+      <c r="Q47" s="7"/>
     </row>
     <row r="48">
       <c r="A48" s="4">
         <v>55</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G48" s="4">
         <v>628112677786</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L48" s="4">
         <v>33722</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O48" s="5">
         <v>45948.226643518516</v>
@@ -4147,7 +4147,7 @@
       <c r="P48" s="5">
         <v>18282</v>
       </c>
-      <c r="Q48" s="6"/>
+      <c r="Q48" s="7"/>
     </row>
     <row r="49">
       <c r="A49" s="4">
@@ -4157,13 +4157,13 @@
         <v>295</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>325</v>
@@ -4172,13 +4172,13 @@
         <v>628121220761</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>19</v>
@@ -4187,10 +4187,10 @@
         <v>89563</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O49" s="5">
         <v>45948.226643518516</v>
@@ -4198,50 +4198,50 @@
       <c r="P49" s="5">
         <v>22259</v>
       </c>
-      <c r="Q49" s="6"/>
+      <c r="Q49" s="7"/>
     </row>
     <row r="50">
       <c r="A50" s="4">
         <v>57</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>320</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G50" s="4">
         <v>628115310415</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>288</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L50" s="4">
         <v>11121</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O50" s="5">
         <v>45948.226643518516</v>
@@ -4249,38 +4249,38 @@
       <c r="P50" s="5">
         <v>20976</v>
       </c>
-      <c r="Q50" s="6"/>
+      <c r="Q50" s="7"/>
     </row>
     <row r="51">
       <c r="A51" s="4">
         <v>58</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G51" s="4">
         <v>628192553769</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>354</v>
@@ -4289,10 +4289,10 @@
         <v>81629</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O51" s="5">
         <v>45948.226643518516</v>
@@ -4300,23 +4300,23 @@
       <c r="P51" s="5">
         <v>26494</v>
       </c>
-      <c r="Q51" s="6"/>
+      <c r="Q51" s="7"/>
     </row>
     <row r="52">
       <c r="A52" s="4">
         <v>59</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>339</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>12</v>
@@ -4325,25 +4325,25 @@
         <v>628153041620</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L52" s="4">
         <v>28419</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O52" s="5">
         <v>45948.226643518516</v>
@@ -4351,7 +4351,7 @@
       <c r="P52" s="5">
         <v>26285</v>
       </c>
-      <c r="Q52" s="6"/>
+      <c r="Q52" s="7"/>
     </row>
     <row r="53">
       <c r="A53" s="4">
@@ -4364,19 +4364,19 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G53" s="4">
         <v>628124226502</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>327</v>
@@ -4391,10 +4391,10 @@
         <v>42148</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O53" s="5">
         <v>45948.226643518516</v>
@@ -4402,23 +4402,23 @@
       <c r="P53" s="5">
         <v>34851</v>
       </c>
-      <c r="Q53" s="6"/>
+      <c r="Q53" s="7"/>
     </row>
     <row r="54">
       <c r="A54" s="4">
         <v>61</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>324</v>
@@ -4427,25 +4427,25 @@
         <v>628188281282</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L54" s="4">
         <v>54101</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O54" s="5">
         <v>45948.226643518516</v>
@@ -4453,7 +4453,7 @@
       <c r="P54" s="5">
         <v>18804</v>
       </c>
-      <c r="Q54" s="6"/>
+      <c r="Q54" s="7"/>
     </row>
     <row r="55">
       <c r="A55" s="4">
@@ -4463,13 +4463,13 @@
         <v>271</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>374</v>
@@ -4478,13 +4478,13 @@
         <v>628119837011</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>19</v>
@@ -4493,10 +4493,10 @@
         <v>64899</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O55" s="5">
         <v>45948.226643518516</v>
@@ -4504,7 +4504,7 @@
       <c r="P55" s="5">
         <v>30029</v>
       </c>
-      <c r="Q55" s="6"/>
+      <c r="Q55" s="7"/>
     </row>
     <row r="56">
       <c r="A56" s="4">
@@ -4514,28 +4514,28 @@
         <v>22</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>320</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G56" s="4">
         <v>628169948006</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>327</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>292</v>
@@ -4544,10 +4544,10 @@
         <v>45567</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O56" s="5">
         <v>45948.226643518516</v>
@@ -4555,50 +4555,50 @@
       <c r="P56" s="5">
         <v>36232</v>
       </c>
-      <c r="Q56" s="6"/>
+      <c r="Q56" s="7"/>
     </row>
     <row r="57">
       <c r="A57" s="4">
         <v>64</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>366</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G57" s="4">
         <v>628175266633</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L57" s="4">
         <v>58289</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O57" s="5">
         <v>45948.226643518516</v>
@@ -4606,50 +4606,50 @@
       <c r="P57" s="5">
         <v>20711</v>
       </c>
-      <c r="Q57" s="6"/>
+      <c r="Q57" s="7"/>
     </row>
     <row r="58">
       <c r="A58" s="4">
         <v>65</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G58" s="4">
         <v>628197777650</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L58" s="4">
         <v>66437</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O58" s="5">
         <v>45948.226643518516</v>
@@ -4657,50 +4657,50 @@
       <c r="P58" s="5">
         <v>25965</v>
       </c>
-      <c r="Q58" s="6"/>
+      <c r="Q58" s="7"/>
     </row>
     <row r="59">
       <c r="A59" s="4">
         <v>66</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G59" s="4">
         <v>628126452560</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L59" s="4">
         <v>51849</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O59" s="5">
         <v>45948.226643518516</v>
@@ -4708,20 +4708,20 @@
       <c r="P59" s="5">
         <v>38237</v>
       </c>
-      <c r="Q59" s="6"/>
+      <c r="Q59" s="7"/>
     </row>
     <row r="60">
       <c r="A60" s="4">
         <v>67</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>315</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>321</v>
@@ -4733,13 +4733,13 @@
         <v>628136204146</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>327</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>292</v>
@@ -4748,10 +4748,10 @@
         <v>41691</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O60" s="5">
         <v>45948.226643518516</v>
@@ -4759,7 +4759,7 @@
       <c r="P60" s="5">
         <v>20739</v>
       </c>
-      <c r="Q60" s="6"/>
+      <c r="Q60" s="7"/>
     </row>
     <row r="61">
       <c r="A61" s="4">
@@ -4769,22 +4769,22 @@
         <v>309</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G61" s="4">
         <v>628175616745</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>13</v>
@@ -4793,16 +4793,16 @@
         <v>16</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L61" s="4">
         <v>75820</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O61" s="5">
         <v>45948.226643518516</v>
@@ -4810,32 +4810,32 @@
       <c r="P61" s="5">
         <v>38471</v>
       </c>
-      <c r="Q61" s="6"/>
+      <c r="Q61" s="7"/>
     </row>
     <row r="62">
       <c r="A62" s="4">
         <v>70</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>340</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G62" s="4">
         <v>628167273043</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>289</v>
@@ -4850,10 +4850,10 @@
         <v>53063</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O62" s="5">
         <v>45948.226643518516</v>
@@ -4861,20 +4861,20 @@
       <c r="P62" s="5">
         <v>23705</v>
       </c>
-      <c r="Q62" s="6"/>
+      <c r="Q62" s="7"/>
     </row>
     <row r="63">
       <c r="A63" s="4">
         <v>71</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>280</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>373</v>
@@ -4886,10 +4886,10 @@
         <v>628141480326</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>17</v>
@@ -4901,10 +4901,10 @@
         <v>53612</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O63" s="5">
         <v>45948.226643518516</v>
@@ -4912,20 +4912,20 @@
       <c r="P63" s="5">
         <v>19186</v>
       </c>
-      <c r="Q63" s="6"/>
+      <c r="Q63" s="7"/>
     </row>
     <row r="64">
       <c r="A64" s="4">
         <v>72</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>323</v>
@@ -4937,25 +4937,25 @@
         <v>628184551228</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L64" s="4">
         <v>20666</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O64" s="5">
         <v>45948.226643518516</v>
@@ -4963,7 +4963,7 @@
       <c r="P64" s="5">
         <v>21677</v>
       </c>
-      <c r="Q64" s="6"/>
+      <c r="Q64" s="7"/>
     </row>
     <row r="65">
       <c r="A65" s="4">
@@ -4976,19 +4976,19 @@
         <v>316</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G65" s="4">
         <v>628156899295</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>13</v>
@@ -4997,16 +4997,16 @@
         <v>291</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L65" s="4">
         <v>32793</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O65" s="5">
         <v>45948.226643518516</v>
@@ -5014,7 +5014,7 @@
       <c r="P65" s="5">
         <v>32131</v>
       </c>
-      <c r="Q65" s="6"/>
+      <c r="Q65" s="7"/>
     </row>
     <row r="66">
       <c r="A66" s="4">
@@ -5024,13 +5024,13 @@
         <v>23</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>325</v>
@@ -5039,13 +5039,13 @@
         <v>628107847433</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>327</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>292</v>
@@ -5054,10 +5054,10 @@
         <v>86563</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O66" s="5">
         <v>45948.226643518516</v>
@@ -5065,32 +5065,32 @@
       <c r="P66" s="5">
         <v>38085</v>
       </c>
-      <c r="Q66" s="6"/>
+      <c r="Q66" s="7"/>
     </row>
     <row r="67">
       <c r="A67" s="4">
         <v>76</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G67" s="4">
         <v>628169713310</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>13</v>
@@ -5099,16 +5099,16 @@
         <v>349</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L67" s="4">
         <v>55874</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O67" s="5">
         <v>45948.226643518516</v>
@@ -5116,7 +5116,7 @@
       <c r="P67" s="5">
         <v>25457</v>
       </c>
-      <c r="Q67" s="6"/>
+      <c r="Q67" s="7"/>
     </row>
     <row r="68">
       <c r="A68" s="4">
@@ -5126,40 +5126,40 @@
         <v>24</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G68" s="4">
         <v>628165280581</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>378</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L68" s="4">
         <v>59464</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O68" s="5">
         <v>45948.226643518516</v>
@@ -5167,7 +5167,7 @@
       <c r="P68" s="5">
         <v>26136</v>
       </c>
-      <c r="Q68" s="6"/>
+      <c r="Q68" s="7"/>
     </row>
     <row r="69">
       <c r="A69" s="4">
@@ -5180,7 +5180,7 @@
         <v>367</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>373</v>
@@ -5192,25 +5192,25 @@
         <v>628195219847</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L69" s="4">
         <v>51215</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O69" s="5">
         <v>45948.226643518516</v>
@@ -5218,50 +5218,50 @@
       <c r="P69" s="5">
         <v>20946</v>
       </c>
-      <c r="Q69" s="6"/>
+      <c r="Q69" s="7"/>
     </row>
     <row r="70">
       <c r="A70" s="4">
         <v>11</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>341</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G70" s="4">
         <v>628127980061</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L70" s="4">
         <v>27490</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O70" s="5">
         <v>45948.226643518516</v>
@@ -5269,7 +5269,7 @@
       <c r="P70" s="5">
         <v>38177</v>
       </c>
-      <c r="Q70" s="6"/>
+      <c r="Q70" s="7"/>
     </row>
     <row r="71">
       <c r="A71" s="4">
@@ -5279,40 +5279,40 @@
         <v>3</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G71" s="4">
         <v>628185575769</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L71" s="4">
         <v>54833</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O71" s="5">
         <v>45948.226643518516</v>
@@ -5320,35 +5320,35 @@
       <c r="P71" s="5">
         <v>28063</v>
       </c>
-      <c r="Q71" s="6"/>
+      <c r="Q71" s="7"/>
     </row>
     <row r="72">
       <c r="A72" s="4">
         <v>1</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G72" s="4">
         <v>628197758156</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>380</v>
@@ -5360,10 +5360,10 @@
         <v>75368</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O72" s="5">
         <v>45948.226643518516</v>
@@ -5371,7 +5371,7 @@
       <c r="P72" s="5">
         <v>25741</v>
       </c>
-      <c r="Q72" s="6"/>
+      <c r="Q72" s="7"/>
     </row>
     <row r="73">
       <c r="A73" s="4">
@@ -5384,19 +5384,19 @@
         <v>282</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>320</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G73" s="4">
         <v>628196599832</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>289</v>
@@ -5411,10 +5411,10 @@
         <v>51931</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O73" s="5">
         <v>45948.226643518516</v>
@@ -5422,38 +5422,38 @@
       <c r="P73" s="5">
         <v>34410</v>
       </c>
-      <c r="Q73" s="6"/>
+      <c r="Q73" s="7"/>
     </row>
     <row r="74">
       <c r="A74" s="4">
         <v>3</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>322</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G74" s="4">
         <v>628185324029</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>289</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>354</v>
@@ -5462,10 +5462,10 @@
         <v>60425</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O74" s="5">
         <v>45948.226643518516</v>
@@ -5473,38 +5473,38 @@
       <c r="P74" s="5">
         <v>22174</v>
       </c>
-      <c r="Q74" s="6"/>
+      <c r="Q74" s="7"/>
     </row>
     <row r="75">
       <c r="A75" s="4">
         <v>4</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G75" s="4">
         <v>628192785248</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>354</v>
@@ -5513,10 +5513,10 @@
         <v>34249</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O75" s="5">
         <v>45948.226643518516</v>
@@ -5524,32 +5524,32 @@
       <c r="P75" s="5">
         <v>30798</v>
       </c>
-      <c r="Q75" s="6"/>
+      <c r="Q75" s="7"/>
     </row>
     <row r="76">
       <c r="A76" s="4">
         <v>5</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G76" s="4">
         <v>628164447163</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>327</v>
@@ -5564,10 +5564,10 @@
         <v>46731</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O76" s="5">
         <v>45948.226643518516</v>
@@ -5575,20 +5575,20 @@
       <c r="P76" s="5">
         <v>20608</v>
       </c>
-      <c r="Q76" s="6"/>
+      <c r="Q76" s="7"/>
     </row>
     <row r="77">
       <c r="A77" s="4">
         <v>6</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>283</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>320</v>
@@ -5600,13 +5600,13 @@
         <v>628172700909</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>19</v>
@@ -5615,10 +5615,10 @@
         <v>13846</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O77" s="5">
         <v>45948.226643518516</v>
@@ -5626,32 +5626,32 @@
       <c r="P77" s="5">
         <v>31063</v>
       </c>
-      <c r="Q77" s="6"/>
+      <c r="Q77" s="7"/>
     </row>
     <row r="78">
       <c r="A78" s="4">
         <v>7</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>368</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G78" s="4">
         <v>628174611618</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>13</v>
@@ -5660,16 +5660,16 @@
         <v>331</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L78" s="4">
         <v>21933</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O78" s="5">
         <v>45948.226643518516</v>
@@ -5677,7 +5677,7 @@
       <c r="P78" s="5">
         <v>34690</v>
       </c>
-      <c r="Q78" s="6"/>
+      <c r="Q78" s="7"/>
     </row>
     <row r="79">
       <c r="A79" s="4">
@@ -5687,28 +5687,28 @@
         <v>296</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G79" s="4">
         <v>628190935259</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>19</v>
@@ -5717,10 +5717,10 @@
         <v>11819</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O79" s="5">
         <v>45948.226643518516</v>
@@ -5728,7 +5728,7 @@
       <c r="P79" s="5">
         <v>25723</v>
       </c>
-      <c r="Q79" s="6"/>
+      <c r="Q79" s="7"/>
     </row>
     <row r="80">
       <c r="A80" s="4">
@@ -5741,7 +5741,7 @@
         <v>342</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>285</v>
@@ -5753,25 +5753,25 @@
         <v>628121226923</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L80" s="4">
         <v>70933</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O80" s="5">
         <v>45948.226643518516</v>
@@ -5779,32 +5779,32 @@
       <c r="P80" s="5">
         <v>36276</v>
       </c>
-      <c r="Q80" s="6"/>
+      <c r="Q80" s="7"/>
     </row>
     <row r="81">
       <c r="A81" s="4">
         <v>10</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>317</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G81" s="4">
         <v>628167871391</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>289</v>
@@ -5819,10 +5819,10 @@
         <v>18631</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O81" s="5">
         <v>45948.226643518516</v>
@@ -5830,38 +5830,38 @@
       <c r="P81" s="5">
         <v>32853</v>
       </c>
-      <c r="Q81" s="6"/>
+      <c r="Q81" s="7"/>
     </row>
     <row r="82">
       <c r="A82" s="4">
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>286</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G82" s="4">
         <v>628192431324</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>354</v>
@@ -5870,10 +5870,10 @@
         <v>58937</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O82" s="5">
         <v>45948.226643518516</v>
@@ -5881,20 +5881,20 @@
       <c r="P82" s="5">
         <v>29676</v>
       </c>
-      <c r="Q82" s="6"/>
+      <c r="Q82" s="7"/>
     </row>
     <row r="83">
       <c r="A83" s="4">
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>321</v>
@@ -5906,7 +5906,7 @@
         <v>628129715579</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>288</v>
@@ -5915,16 +5915,16 @@
         <v>304</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L83" s="4">
         <v>76336</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O83" s="5">
         <v>45948.226643518516</v>
@@ -5932,38 +5932,38 @@
       <c r="P83" s="5">
         <v>34339</v>
       </c>
-      <c r="Q83" s="6"/>
+      <c r="Q83" s="7"/>
     </row>
     <row r="84">
       <c r="A84" s="4">
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>322</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G84" s="4">
         <v>628121435599</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>355</v>
@@ -5972,10 +5972,10 @@
         <v>12040</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O84" s="5">
         <v>45948.226643518516</v>
@@ -5983,38 +5983,38 @@
       <c r="P84" s="5">
         <v>38838</v>
       </c>
-      <c r="Q84" s="6"/>
+      <c r="Q84" s="7"/>
     </row>
     <row r="85">
       <c r="A85" s="4">
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G85" s="4">
         <v>628137400075</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>289</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>354</v>
@@ -6023,10 +6023,10 @@
         <v>36695</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O85" s="5">
         <v>45948.226643518516</v>
@@ -6034,35 +6034,35 @@
       <c r="P85" s="5">
         <v>27836</v>
       </c>
-      <c r="Q85" s="6"/>
+      <c r="Q85" s="7"/>
     </row>
     <row r="86">
       <c r="A86" s="4">
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>286</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G86" s="4">
         <v>628155162238</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>381</v>
@@ -6074,10 +6074,10 @@
         <v>13852</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O86" s="5">
         <v>45948.226643518516</v>
@@ -6085,7 +6085,7 @@
       <c r="P86" s="5">
         <v>26062</v>
       </c>
-      <c r="Q86" s="6"/>
+      <c r="Q86" s="7"/>
     </row>
     <row r="87">
       <c r="A87" s="4">
@@ -6098,10 +6098,10 @@
         <v>369</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>11</v>
@@ -6110,13 +6110,13 @@
         <v>628176360235</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>289</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>354</v>
@@ -6125,10 +6125,10 @@
         <v>43524</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O87" s="5">
         <v>45948.226643518516</v>
@@ -6136,7 +6136,7 @@
       <c r="P87" s="5">
         <v>23426</v>
       </c>
-      <c r="Q87" s="6"/>
+      <c r="Q87" s="7"/>
     </row>
     <row r="88">
       <c r="A88" s="4">
@@ -6149,37 +6149,37 @@
         <v>370</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G88" s="4">
         <v>628113713141</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>351</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L88" s="4">
         <v>32693</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O88" s="5">
         <v>45948.226643518516</v>
@@ -6187,7 +6187,7 @@
       <c r="P88" s="5">
         <v>23715</v>
       </c>
-      <c r="Q88" s="6"/>
+      <c r="Q88" s="7"/>
     </row>
     <row r="89">
       <c r="A89" s="4">
@@ -6200,25 +6200,25 @@
         <v>318</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>320</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G89" s="4">
         <v>628163468245</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>19</v>
@@ -6227,10 +6227,10 @@
         <v>42534</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O89" s="5">
         <v>45948.226643518516</v>
@@ -6238,7 +6238,7 @@
       <c r="P89" s="5">
         <v>18994</v>
       </c>
-      <c r="Q89" s="6"/>
+      <c r="Q89" s="7"/>
     </row>
     <row r="90">
       <c r="A90" s="4">
@@ -6248,13 +6248,13 @@
         <v>273</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>325</v>
@@ -6263,25 +6263,25 @@
         <v>628143505815</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L90" s="4">
         <v>81036</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O90" s="5">
         <v>45948.226643518516</v>
@@ -6289,35 +6289,35 @@
       <c r="P90" s="5">
         <v>34955</v>
       </c>
-      <c r="Q90" s="6"/>
+      <c r="Q90" s="7"/>
     </row>
     <row r="91">
       <c r="A91" s="4">
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>284</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G91" s="4">
         <v>628103797703</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>351</v>
@@ -6329,10 +6329,10 @@
         <v>68091</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O91" s="5">
         <v>45948.226643518516</v>
@@ -6340,7 +6340,7 @@
       <c r="P91" s="5">
         <v>21097</v>
       </c>
-      <c r="Q91" s="6"/>
+      <c r="Q91" s="7"/>
     </row>
     <row r="92">
       <c r="A92" s="4">
@@ -6350,10 +6350,10 @@
         <v>297</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>343</v>
@@ -6365,13 +6365,13 @@
         <v>628140904430</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I92" s="2" t="s">
         <v>327</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>292</v>
@@ -6380,10 +6380,10 @@
         <v>25921</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O92" s="5">
         <v>45948.226643518516</v>
@@ -6391,7 +6391,7 @@
       <c r="P92" s="5">
         <v>23180</v>
       </c>
-      <c r="Q92" s="6"/>
+      <c r="Q92" s="7"/>
     </row>
     <row r="93">
       <c r="A93" s="4">
@@ -6401,13 +6401,13 @@
         <v>274</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>344</v>
@@ -6416,25 +6416,25 @@
         <v>628170565757</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>306</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L93" s="4">
         <v>62383</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O93" s="5">
         <v>45948.226643518516</v>
@@ -6442,50 +6442,50 @@
       <c r="P93" s="5">
         <v>18843</v>
       </c>
-      <c r="Q93" s="6"/>
+      <c r="Q93" s="7"/>
     </row>
     <row r="94">
       <c r="A94" s="4">
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>320</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G94" s="4">
         <v>628188586480</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I94" s="2" t="s">
         <v>288</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L94" s="4">
         <v>71986</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O94" s="5">
         <v>45948.226643518516</v>
@@ -6493,7 +6493,7 @@
       <c r="P94" s="5">
         <v>34081</v>
       </c>
-      <c r="Q94" s="6"/>
+      <c r="Q94" s="7"/>
     </row>
     <row r="95">
       <c r="A95" s="4">
@@ -6503,28 +6503,28 @@
         <v>334</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>286</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G95" s="4">
         <v>628116656095</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>19</v>
@@ -6533,10 +6533,10 @@
         <v>86182</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O95" s="5">
         <v>45948.226643518516</v>
@@ -6544,7 +6544,7 @@
       <c r="P95" s="5">
         <v>39376</v>
       </c>
-      <c r="Q95" s="6"/>
+      <c r="Q95" s="7"/>
     </row>
     <row r="96">
       <c r="A96" s="4">
@@ -6554,40 +6554,40 @@
         <v>335</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G96" s="4">
         <v>628112221587</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>288</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L96" s="4">
         <v>69573</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O96" s="5">
         <v>45948.226643518516</v>
@@ -6595,50 +6595,50 @@
       <c r="P96" s="5">
         <v>21796</v>
       </c>
-      <c r="Q96" s="6"/>
+      <c r="Q96" s="7"/>
     </row>
     <row r="97">
       <c r="A97" s="4">
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G97" s="4">
         <v>628157588700</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L97" s="4">
         <v>61283</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O97" s="5">
         <v>45948.226643518516</v>
@@ -6646,7 +6646,7 @@
       <c r="P97" s="5">
         <v>39476</v>
       </c>
-      <c r="Q97" s="6"/>
+      <c r="Q97" s="7"/>
     </row>
     <row r="98">
       <c r="A98" s="4">
@@ -6656,22 +6656,22 @@
         <v>5</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G98" s="4">
         <v>628196209997</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I98" s="2" t="s">
         <v>289</v>
@@ -6686,10 +6686,10 @@
         <v>12789</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O98" s="5">
         <v>45948.226643518516</v>
@@ -6697,7 +6697,7 @@
       <c r="P98" s="5">
         <v>25291</v>
       </c>
-      <c r="Q98" s="6"/>
+      <c r="Q98" s="7"/>
     </row>
     <row r="99">
       <c r="A99" s="4">
@@ -6710,19 +6710,19 @@
         <v>319</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>343</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G99" s="4">
         <v>628142193739</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I99" s="2" t="s">
         <v>13</v>
@@ -6731,16 +6731,16 @@
         <v>352</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L99" s="4">
         <v>23961</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O99" s="5">
         <v>45948.226643518516</v>
@@ -6748,7 +6748,7 @@
       <c r="P99" s="5">
         <v>29640</v>
       </c>
-      <c r="Q99" s="6"/>
+      <c r="Q99" s="7"/>
     </row>
     <row r="100">
       <c r="A100" s="4">
@@ -6761,7 +6761,7 @@
         <v>371</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>321</v>
@@ -6773,13 +6773,13 @@
         <v>628135290576</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>289</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>354</v>
@@ -6788,10 +6788,10 @@
         <v>72336</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O100" s="5">
         <v>45948.226643518516</v>
@@ -6799,7 +6799,7 @@
       <c r="P100" s="5">
         <v>20972</v>
       </c>
-      <c r="Q100" s="6"/>
+      <c r="Q100" s="7"/>
     </row>
     <row r="101">
       <c r="A101" s="4">
@@ -6809,28 +6809,28 @@
         <v>275</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G101" s="4">
         <v>628158372735</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I101" s="2" t="s">
         <v>289</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>354</v>
@@ -6839,10 +6839,10 @@
         <v>69707</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O101" s="5">
         <v>45948.226643518516</v>
@@ -6850,7 +6850,7 @@
       <c r="P101" s="5">
         <v>21698</v>
       </c>
-      <c r="Q101" s="6"/>
+      <c r="Q101" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/E2E/Web/Web_E2E_UserRegistration/Default.xlsx
+++ b/E2E/Web/Web_E2E_UserRegistration/Default.xlsx
@@ -274,9 +274,6 @@
     <t>OFF</t>
   </si>
   <si>
-    <t>aguspratama109</t>
-  </si>
-  <si>
     <t>hendratan12</t>
   </si>
   <si>
@@ -815,6 +812,9 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>aguspratama110</t>
   </si>
   <si>
     <t>budilim29</t>
@@ -1685,7 +1685,7 @@
   <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -1699,7 +1699,7 @@
   <sheetData>
     <row r="1" ht="14.95" s="8" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>68</v>
@@ -1708,10 +1708,10 @@
         <v>337</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>58</v>
@@ -1726,22 +1726,22 @@
         <v>301</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>44</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>45</v>
@@ -1755,25 +1755,25 @@
         <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G2" s="4">
         <v>628134344765</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>287</v>
@@ -1788,10 +1788,10 @@
         <v>63877</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O2" s="5">
         <v>45948.226643518516</v>
@@ -1800,7 +1800,7 @@
         <v>32662</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3">
@@ -1808,16 +1808,16 @@
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>344</v>
@@ -1826,13 +1826,13 @@
         <v>628147303132</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>287</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>353</v>
@@ -1844,7 +1844,7 @@
         <v>84</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O3" s="5">
         <v>45948.226643518516</v>
@@ -1859,34 +1859,34 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>320</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G4" s="4">
         <v>628129434850</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L4" s="4">
         <v>39679</v>
@@ -1913,13 +1913,13 @@
         <v>307</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>36</v>
@@ -1928,13 +1928,13 @@
         <v>628183932230</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>288</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>83</v>
@@ -1961,13 +1961,13 @@
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>321</v>
@@ -1979,13 +1979,13 @@
         <v>628146987673</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>289</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>354</v>
@@ -1997,7 +1997,7 @@
         <v>84</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O6" s="5">
         <v>45948.226643518516</v>
@@ -2012,31 +2012,31 @@
         <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G7" s="4">
         <v>628158682959</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>19</v>
@@ -2069,22 +2069,22 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G8" s="4">
         <v>628175960451</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>59</v>
@@ -2096,7 +2096,7 @@
         <v>31481</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>84</v>
@@ -2117,22 +2117,22 @@
         <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>372</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G9" s="4">
         <v>628119582821</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>288</v>
@@ -2150,7 +2150,7 @@
         <v>84</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O9" s="5">
         <v>45948.226643518516</v>
@@ -2165,25 +2165,25 @@
         <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G10" s="4">
         <v>628100298274</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>288</v>
@@ -2201,7 +2201,7 @@
         <v>84</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O10" s="5">
         <v>45948.226643518516</v>
@@ -2222,19 +2222,19 @@
         <v>298</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G11" s="4">
         <v>628130158689</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>38</v>
@@ -2243,16 +2243,16 @@
         <v>81</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L11" s="4">
         <v>65183</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O11" s="5">
         <v>45948.226643518516</v>
@@ -2270,10 +2270,10 @@
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>57</v>
@@ -2285,13 +2285,13 @@
         <v>628108570103</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>327</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>292</v>
@@ -2318,28 +2318,28 @@
         <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G13" s="4">
         <v>628125724138</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>346</v>
@@ -2351,7 +2351,7 @@
         <v>63899</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>84</v>
@@ -2375,7 +2375,7 @@
         <v>276</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>56</v>
@@ -2387,13 +2387,13 @@
         <v>628156171394</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>289</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>354</v>
@@ -2402,10 +2402,10 @@
         <v>82659</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O14" s="5">
         <v>45948.226643518516</v>
@@ -2420,13 +2420,13 @@
         <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>277</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>55</v>
@@ -2438,10 +2438,10 @@
         <v>628144335819</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>328</v>
@@ -2471,13 +2471,13 @@
         <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>322</v>
@@ -2489,10 +2489,10 @@
         <v>628154822059</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>376</v>
@@ -2507,7 +2507,7 @@
         <v>84</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O16" s="5">
         <v>45948.226643518516</v>
@@ -2522,13 +2522,13 @@
         <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>56</v>
@@ -2540,7 +2540,7 @@
         <v>628158274276</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>38</v>
@@ -2549,13 +2549,13 @@
         <v>15</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L17" s="4">
         <v>82651</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>84</v>
@@ -2579,25 +2579,25 @@
         <v>362</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>321</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G18" s="4">
         <v>628107910627</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>288</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>83</v>
@@ -2606,10 +2606,10 @@
         <v>22934</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O18" s="5">
         <v>45948.226643518516</v>
@@ -2624,13 +2624,13 @@
         <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>372</v>
@@ -2642,13 +2642,13 @@
         <v>628143713500</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>355</v>
@@ -2675,25 +2675,25 @@
         <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>363</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G20" s="4">
         <v>628195478794</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>288</v>
@@ -2729,22 +2729,22 @@
         <v>267</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G21" s="4">
         <v>628147715731</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>288</v>
@@ -2759,10 +2759,10 @@
         <v>74993</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O21" s="5">
         <v>45948.226643518516</v>
@@ -2783,7 +2783,7 @@
         <v>364</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>78</v>
@@ -2795,13 +2795,13 @@
         <v>628109777295</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>80</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>80</v>
@@ -2813,7 +2813,7 @@
         <v>84</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O22" s="5">
         <v>45948.226643518516</v>
@@ -2828,16 +2828,16 @@
         <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>324</v>
@@ -2846,7 +2846,7 @@
         <v>628150425593</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>80</v>
@@ -2861,7 +2861,7 @@
         <v>23933</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>84</v>
@@ -2885,19 +2885,19 @@
         <v>312</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G24" s="4">
         <v>628164711773</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>327</v>
@@ -2912,10 +2912,10 @@
         <v>56744</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O24" s="5">
         <v>45948.226643518516</v>
@@ -2930,25 +2930,25 @@
         <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="G25" s="4">
         <v>628168934530</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>327</v>
@@ -2987,25 +2987,25 @@
         <v>7</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G26" s="4">
         <v>628191788162</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>327</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>292</v>
@@ -3014,7 +3014,7 @@
         <v>80524</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>84</v>
@@ -3032,25 +3032,25 @@
         <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>278</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G27" s="4">
         <v>628114734369</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>327</v>
@@ -3068,7 +3068,7 @@
         <v>84</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O27" s="5">
         <v>45948.226643518516</v>
@@ -3086,10 +3086,10 @@
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>57</v>
@@ -3101,7 +3101,7 @@
         <v>628105740885</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>289</v>
@@ -3116,10 +3116,10 @@
         <v>88449</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O28" s="5">
         <v>45948.226643518516</v>
@@ -3134,28 +3134,28 @@
         <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G29" s="4">
         <v>628120859173</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>40</v>
@@ -3185,16 +3185,16 @@
         <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>37</v>
@@ -3203,13 +3203,13 @@
         <v>628183203131</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>289</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>354</v>
@@ -3221,7 +3221,7 @@
         <v>84</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O30" s="5">
         <v>45948.226643518516</v>
@@ -3236,16 +3236,16 @@
         <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>300</v>
@@ -3254,13 +3254,13 @@
         <v>628157311837</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>355</v>
@@ -3272,7 +3272,7 @@
         <v>84</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O31" s="5">
         <v>45948.226643518516</v>
@@ -3293,10 +3293,10 @@
         <v>365</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>11</v>
@@ -3305,13 +3305,13 @@
         <v>628144482182</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>80</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>80</v>
@@ -3320,10 +3320,10 @@
         <v>72047</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O32" s="5">
         <v>45948.226643518516</v>
@@ -3338,25 +3338,25 @@
         <v>15</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G33" s="4">
         <v>628126703286</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>287</v>
@@ -3371,7 +3371,7 @@
         <v>37901</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>84</v>
@@ -3395,19 +3395,19 @@
         <v>76</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G34" s="4">
         <v>628133123271</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>287</v>
@@ -3443,13 +3443,13 @@
         <v>357</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>36</v>
@@ -3458,13 +3458,13 @@
         <v>628183298096</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>287</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>353</v>
@@ -3473,7 +3473,7 @@
         <v>16134</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>84</v>
@@ -3494,22 +3494,22 @@
         <v>333</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G36" s="4">
         <v>628106671721</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>287</v>
@@ -3524,7 +3524,7 @@
         <v>15135</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>84</v>
@@ -3542,25 +3542,25 @@
         <v>73</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>338</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G37" s="4">
         <v>628189086695</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>287</v>
@@ -3599,19 +3599,19 @@
         <v>299</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>321</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G38" s="4">
         <v>628139136636</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>287</v>
@@ -3647,28 +3647,28 @@
         <v>20</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>373</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G39" s="4">
         <v>628191906216</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>287</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>353</v>
@@ -3677,10 +3677,10 @@
         <v>22494</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O39" s="5">
         <v>45948.226643518516</v>
@@ -3698,28 +3698,28 @@
         <v>269</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>285</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G40" s="4">
         <v>628143603294</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>327</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>292</v>
@@ -3728,10 +3728,10 @@
         <v>26759</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O40" s="5">
         <v>45948.226643518516</v>
@@ -3752,25 +3752,25 @@
         <v>50</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>286</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G41" s="4">
         <v>628117306726</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I41" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J41" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>354</v>
@@ -3782,7 +3782,7 @@
         <v>84</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O41" s="5">
         <v>45948.226643518516</v>
@@ -3800,22 +3800,22 @@
         <v>359</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G42" s="4">
         <v>628169005007</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>38</v>
@@ -3824,16 +3824,16 @@
         <v>303</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L42" s="4">
         <v>37034</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O42" s="5">
         <v>45948.226643518516</v>
@@ -3854,25 +3854,25 @@
         <v>51</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>321</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G43" s="4">
         <v>628126555106</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>354</v>
@@ -3881,10 +3881,10 @@
         <v>67645</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O43" s="5">
         <v>45948.226643518516</v>
@@ -3899,31 +3899,31 @@
         <v>51</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G44" s="4">
         <v>628149155006</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>327</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>292</v>
@@ -3932,10 +3932,10 @@
         <v>50498</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O44" s="5">
         <v>45948.226643518516</v>
@@ -3950,16 +3950,16 @@
         <v>52</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>325</v>
@@ -3968,13 +3968,13 @@
         <v>628154684194</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>80</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>80</v>
@@ -3983,10 +3983,10 @@
         <v>77810</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O45" s="5">
         <v>45948.226643518516</v>
@@ -4001,34 +4001,34 @@
         <v>53</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>313</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G46" s="4">
         <v>628194936391</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L46" s="4">
         <v>62938</v>
@@ -4052,25 +4052,25 @@
         <v>54</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G47" s="4">
         <v>628127849284</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>38</v>
@@ -4079,7 +4079,7 @@
         <v>379</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L47" s="4">
         <v>77123</v>
@@ -4088,7 +4088,7 @@
         <v>84</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O47" s="5">
         <v>45948.226643518516</v>
@@ -4109,37 +4109,37 @@
         <v>52</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G48" s="4">
         <v>628112677786</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L48" s="4">
         <v>33722</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O48" s="5">
         <v>45948.226643518516</v>
@@ -4157,13 +4157,13 @@
         <v>295</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>325</v>
@@ -4172,13 +4172,13 @@
         <v>628121220761</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>19</v>
@@ -4190,7 +4190,7 @@
         <v>84</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O49" s="5">
         <v>45948.226643518516</v>
@@ -4205,31 +4205,31 @@
         <v>57</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>320</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G50" s="4">
         <v>628115310415</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>288</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>83</v>
@@ -4256,31 +4256,31 @@
         <v>58</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G51" s="4">
         <v>628192553769</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>354</v>
@@ -4313,7 +4313,7 @@
         <v>339</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>57</v>
@@ -4325,25 +4325,25 @@
         <v>628153041620</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L52" s="4">
         <v>28419</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O52" s="5">
         <v>45948.226643518516</v>
@@ -4364,19 +4364,19 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G53" s="4">
         <v>628124226502</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>327</v>
@@ -4409,13 +4409,13 @@
         <v>61</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>57</v>
@@ -4427,13 +4427,13 @@
         <v>628188281282</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>80</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>80</v>
@@ -4442,7 +4442,7 @@
         <v>54101</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>84</v>
@@ -4466,10 +4466,10 @@
         <v>30</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>374</v>
@@ -4478,13 +4478,13 @@
         <v>628119837011</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>19</v>
@@ -4496,7 +4496,7 @@
         <v>84</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O55" s="5">
         <v>45948.226643518516</v>
@@ -4514,28 +4514,28 @@
         <v>22</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>320</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G56" s="4">
         <v>628169948006</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>327</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>292</v>
@@ -4544,10 +4544,10 @@
         <v>45567</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O56" s="5">
         <v>45948.226643518516</v>
@@ -4562,25 +4562,25 @@
         <v>64</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>366</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G57" s="4">
         <v>628175266633</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>13</v>
@@ -4589,7 +4589,7 @@
         <v>63</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L57" s="4">
         <v>58289</v>
@@ -4613,25 +4613,25 @@
         <v>65</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G58" s="4">
         <v>628197777650</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>13</v>
@@ -4640,16 +4640,16 @@
         <v>82</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L58" s="4">
         <v>66437</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O58" s="5">
         <v>45948.226643518516</v>
@@ -4664,40 +4664,40 @@
         <v>66</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G59" s="4">
         <v>628126452560</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L59" s="4">
         <v>51849</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N59" s="2" t="s">
         <v>84</v>
@@ -4715,13 +4715,13 @@
         <v>67</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>315</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>321</v>
@@ -4733,13 +4733,13 @@
         <v>628136204146</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>327</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>292</v>
@@ -4748,7 +4748,7 @@
         <v>41691</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N60" s="2" t="s">
         <v>84</v>
@@ -4769,22 +4769,22 @@
         <v>309</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G61" s="4">
         <v>628175616745</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>13</v>
@@ -4793,7 +4793,7 @@
         <v>16</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L61" s="4">
         <v>75820</v>
@@ -4817,25 +4817,25 @@
         <v>70</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>340</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G62" s="4">
         <v>628167273043</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>289</v>
@@ -4850,10 +4850,10 @@
         <v>53063</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O62" s="5">
         <v>45948.226643518516</v>
@@ -4868,13 +4868,13 @@
         <v>71</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>280</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>373</v>
@@ -4886,10 +4886,10 @@
         <v>628141480326</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>17</v>
@@ -4901,7 +4901,7 @@
         <v>53612</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N63" s="2" t="s">
         <v>84</v>
@@ -4919,13 +4919,13 @@
         <v>72</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>323</v>
@@ -4937,22 +4937,22 @@
         <v>628184551228</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L64" s="4">
         <v>20666</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N64" s="2" t="s">
         <v>84</v>
@@ -4976,19 +4976,19 @@
         <v>316</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G65" s="4">
         <v>628156899295</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>13</v>
@@ -4997,16 +4997,16 @@
         <v>291</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L65" s="4">
         <v>32793</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O65" s="5">
         <v>45948.226643518516</v>
@@ -5024,10 +5024,10 @@
         <v>23</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>78</v>
@@ -5039,13 +5039,13 @@
         <v>628107847433</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>327</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>292</v>
@@ -5054,10 +5054,10 @@
         <v>86563</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O66" s="5">
         <v>45948.226643518516</v>
@@ -5072,16 +5072,16 @@
         <v>76</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>36</v>
@@ -5090,7 +5090,7 @@
         <v>628169713310</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>13</v>
@@ -5099,7 +5099,7 @@
         <v>349</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L67" s="4">
         <v>55874</v>
@@ -5129,19 +5129,19 @@
         <v>53</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G68" s="4">
         <v>628165280581</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>80</v>
@@ -5156,10 +5156,10 @@
         <v>59464</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O68" s="5">
         <v>45948.226643518516</v>
@@ -5180,7 +5180,7 @@
         <v>367</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>373</v>
@@ -5192,7 +5192,7 @@
         <v>628195219847</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>80</v>
@@ -5207,7 +5207,7 @@
         <v>51215</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N69" s="2" t="s">
         <v>84</v>
@@ -5231,25 +5231,25 @@
         <v>341</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G70" s="4">
         <v>628127980061</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>80</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>80</v>
@@ -5261,7 +5261,7 @@
         <v>84</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O70" s="5">
         <v>45948.226643518516</v>
@@ -5279,31 +5279,31 @@
         <v>3</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G71" s="4">
         <v>628185575769</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L71" s="4">
         <v>54833</v>
@@ -5327,28 +5327,28 @@
         <v>1</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G72" s="4">
         <v>628197758156</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>380</v>
@@ -5363,7 +5363,7 @@
         <v>84</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O72" s="5">
         <v>45948.226643518516</v>
@@ -5384,7 +5384,7 @@
         <v>282</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>320</v>
@@ -5396,7 +5396,7 @@
         <v>628196599832</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>289</v>
@@ -5435,19 +5435,19 @@
         <v>31</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>322</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G74" s="4">
         <v>628185324029</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>289</v>
@@ -5462,10 +5462,10 @@
         <v>60425</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O74" s="5">
         <v>45948.226643518516</v>
@@ -5480,16 +5480,16 @@
         <v>4</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>79</v>
@@ -5498,13 +5498,13 @@
         <v>628192785248</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>354</v>
@@ -5531,25 +5531,25 @@
         <v>5</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G76" s="4">
         <v>628164447163</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>327</v>
@@ -5582,13 +5582,13 @@
         <v>6</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>283</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>320</v>
@@ -5600,13 +5600,13 @@
         <v>628172700909</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>19</v>
@@ -5615,7 +5615,7 @@
         <v>13846</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N77" s="2" t="s">
         <v>84</v>
@@ -5639,19 +5639,19 @@
         <v>368</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G78" s="4">
         <v>628174611618</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>13</v>
@@ -5660,7 +5660,7 @@
         <v>331</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L78" s="4">
         <v>21933</v>
@@ -5687,28 +5687,28 @@
         <v>296</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G79" s="4">
         <v>628190935259</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>19</v>
@@ -5741,7 +5741,7 @@
         <v>342</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>285</v>
@@ -5753,13 +5753,13 @@
         <v>628121226923</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>80</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>80</v>
@@ -5768,7 +5768,7 @@
         <v>70933</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>84</v>
@@ -5786,25 +5786,25 @@
         <v>10</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>317</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G81" s="4">
         <v>628167871391</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>289</v>
@@ -5822,7 +5822,7 @@
         <v>84</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O81" s="5">
         <v>45948.226643518516</v>
@@ -5837,31 +5837,31 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>286</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G82" s="4">
         <v>628192431324</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>354</v>
@@ -5873,7 +5873,7 @@
         <v>84</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O82" s="5">
         <v>45948.226643518516</v>
@@ -5888,13 +5888,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>321</v>
@@ -5906,7 +5906,7 @@
         <v>628129715579</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>288</v>
@@ -5945,25 +5945,25 @@
         <v>33</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>322</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G84" s="4">
         <v>628121435599</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>355</v>
@@ -5972,10 +5972,10 @@
         <v>12040</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O84" s="5">
         <v>45948.226643518516</v>
@@ -5990,31 +5990,31 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G85" s="4">
         <v>628137400075</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>289</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>354</v>
@@ -6041,28 +6041,28 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>286</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G86" s="4">
         <v>628155162238</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>381</v>
@@ -6077,7 +6077,7 @@
         <v>84</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O86" s="5">
         <v>45948.226643518516</v>
@@ -6098,7 +6098,7 @@
         <v>369</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>55</v>
@@ -6110,13 +6110,13 @@
         <v>628176360235</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>289</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>354</v>
@@ -6125,7 +6125,7 @@
         <v>43524</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N87" s="2" t="s">
         <v>84</v>
@@ -6149,7 +6149,7 @@
         <v>370</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>55</v>
@@ -6161,7 +6161,7 @@
         <v>628113713141</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>38</v>
@@ -6170,7 +6170,7 @@
         <v>351</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L88" s="4">
         <v>32693</v>
@@ -6179,7 +6179,7 @@
         <v>84</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O88" s="5">
         <v>45948.226643518516</v>
@@ -6200,25 +6200,25 @@
         <v>318</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>320</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G89" s="4">
         <v>628163468245</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>19</v>
@@ -6227,7 +6227,7 @@
         <v>42534</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N89" s="2" t="s">
         <v>84</v>
@@ -6251,10 +6251,10 @@
         <v>77</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>325</v>
@@ -6263,7 +6263,7 @@
         <v>628143505815</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>38</v>
@@ -6272,7 +6272,7 @@
         <v>66</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L90" s="4">
         <v>81036</v>
@@ -6281,7 +6281,7 @@
         <v>84</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O90" s="5">
         <v>45948.226643518516</v>
@@ -6296,28 +6296,28 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>284</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G91" s="4">
         <v>628103797703</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>351</v>
@@ -6329,7 +6329,7 @@
         <v>68091</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N91" s="2" t="s">
         <v>84</v>
@@ -6353,7 +6353,7 @@
         <v>54</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>343</v>
@@ -6365,13 +6365,13 @@
         <v>628140904430</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I92" s="2" t="s">
         <v>327</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>292</v>
@@ -6380,7 +6380,7 @@
         <v>25921</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N92" s="2" t="s">
         <v>84</v>
@@ -6401,10 +6401,10 @@
         <v>274</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>78</v>
@@ -6416,7 +6416,7 @@
         <v>628170565757</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>38</v>
@@ -6425,16 +6425,16 @@
         <v>306</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L93" s="4">
         <v>62383</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O93" s="5">
         <v>45948.226643518516</v>
@@ -6449,31 +6449,31 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>320</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G94" s="4">
         <v>628188586480</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I94" s="2" t="s">
         <v>288</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>83</v>
@@ -6503,28 +6503,28 @@
         <v>334</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>286</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G95" s="4">
         <v>628116656095</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>19</v>
@@ -6536,7 +6536,7 @@
         <v>84</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O95" s="5">
         <v>45948.226643518516</v>
@@ -6557,25 +6557,25 @@
         <v>34</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G96" s="4">
         <v>628112221587</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>288</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>83</v>
@@ -6602,40 +6602,40 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G97" s="4">
         <v>628157588700</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I97" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L97" s="4">
         <v>61283</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N97" s="2" t="s">
         <v>84</v>
@@ -6659,10 +6659,10 @@
         <v>35</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>36</v>
@@ -6671,7 +6671,7 @@
         <v>628196209997</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I98" s="2" t="s">
         <v>289</v>
@@ -6686,10 +6686,10 @@
         <v>12789</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O98" s="5">
         <v>45948.226643518516</v>
@@ -6710,19 +6710,19 @@
         <v>319</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>343</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G99" s="4">
         <v>628142193739</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I99" s="2" t="s">
         <v>13</v>
@@ -6731,13 +6731,13 @@
         <v>352</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L99" s="4">
         <v>23961</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N99" s="2" t="s">
         <v>84</v>
@@ -6761,7 +6761,7 @@
         <v>371</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>321</v>
@@ -6773,13 +6773,13 @@
         <v>628135290576</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>289</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>354</v>
@@ -6809,22 +6809,22 @@
         <v>275</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G101" s="4">
         <v>628158372735</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I101" s="2" t="s">
         <v>289</v>
@@ -6842,7 +6842,7 @@
         <v>84</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O101" s="5">
         <v>45948.226643518516</v>
